--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2045992.517900243</v>
+        <v>2045313.100798413</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5588220.064038456</v>
+        <v>5588220.064038458</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736549</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>218.7134039554108</v>
       </c>
       <c r="C11" t="n">
-        <v>206.7247209130925</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>197.7060249576205</v>
       </c>
       <c r="E11" t="n">
-        <v>16.59293137031878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>238.6199786155032</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>151.8262626552655</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>48.04258570959367</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>80.89774890663901</v>
       </c>
       <c r="V11" t="n">
         <v>162.2197811955899</v>
@@ -1433,7 +1433,7 @@
         <v>187.5198806735468</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.583601706939987</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T12" t="n">
-        <v>14.08671310092214</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U12" t="n">
-        <v>44.89856912753546</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>89.9284489241316</v>
+        <v>67.51300991159491</v>
       </c>
       <c r="X12" t="n">
-        <v>24.5481180735552</v>
+        <v>144.0768844948176</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>19.2064129194888</v>
       </c>
     </row>
     <row r="13">
@@ -1570,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.12980963648914</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>35.3915765221569</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T13" t="n">
-        <v>102.4876650760624</v>
+        <v>58.28273605053796</v>
       </c>
       <c r="U13" t="n">
-        <v>112.9136404279224</v>
+        <v>172.248379089936</v>
       </c>
       <c r="V13" t="n">
         <v>86.73825122973346</v>
@@ -1594,7 +1594,7 @@
         <v>57.55023929614984</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>48.42510705221753</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>218.7134039554108</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>197.7060249576205</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>219.448162527526</v>
       </c>
       <c r="F14" t="n">
-        <v>149.6794471387651</v>
+        <v>146.7409005486863</v>
       </c>
       <c r="G14" t="n">
         <v>239.9403233994415</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>48.04258570959362</v>
+        <v>48.04258570959364</v>
       </c>
       <c r="U14" t="n">
-        <v>80.89774890663895</v>
+        <v>80.89774890663898</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>187.5198806735468</v>
       </c>
       <c r="X14" t="n">
-        <v>206.8201389062934</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.2167367024921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>127.1132721997666</v>
@@ -1734,25 +1734,25 @@
         <v>38.82520712046112</v>
       </c>
       <c r="S15" t="n">
-        <v>4.819948034911306</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T15" t="n">
-        <v>14.08671310092208</v>
+        <v>164.8986706931159</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2882692949636</v>
+        <v>44.89856912753543</v>
       </c>
       <c r="V15" t="n">
-        <v>54.72196615872116</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>67.51300991159485</v>
+        <v>67.51300991159488</v>
       </c>
       <c r="X15" t="n">
-        <v>24.54811807355514</v>
+        <v>24.54811807355517</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.20641291948874</v>
+        <v>19.20641291948877</v>
       </c>
     </row>
     <row r="16">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.51337941903502</v>
+        <v>10.33011483010785</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.39157652215684</v>
+        <v>94.72631518417059</v>
       </c>
       <c r="T16" t="n">
-        <v>58.2827360505379</v>
+        <v>58.28273605053793</v>
       </c>
       <c r="U16" t="n">
-        <v>112.9136404279223</v>
+        <v>112.9136404279224</v>
       </c>
       <c r="V16" t="n">
-        <v>86.73825122973341</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
         <v>111.9051373003467</v>
       </c>
       <c r="X16" t="n">
-        <v>57.55023929614978</v>
+        <v>57.55023929614981</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.42510705221747</v>
+        <v>48.4251070522175</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>118.1268213389619</v>
+        <v>118.1268213389617</v>
       </c>
       <c r="C17" t="n">
-        <v>106.1381382966436</v>
+        <v>106.1381382966435</v>
       </c>
       <c r="D17" t="n">
-        <v>97.11944234117158</v>
+        <v>97.11944234117146</v>
       </c>
       <c r="E17" t="n">
-        <v>118.8615799110771</v>
+        <v>118.861579911077</v>
       </c>
       <c r="F17" t="n">
-        <v>138.0333959990543</v>
+        <v>138.0333959990542</v>
       </c>
       <c r="G17" t="n">
-        <v>139.3537407829926</v>
+        <v>139.3537407829925</v>
       </c>
       <c r="H17" t="n">
-        <v>51.23968003881658</v>
+        <v>51.23968003881647</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>61.63319857914098</v>
+        <v>61.63319857914087</v>
       </c>
       <c r="W17" t="n">
-        <v>86.93329805709789</v>
+        <v>86.93329805709777</v>
       </c>
       <c r="X17" t="n">
-        <v>106.2335562898445</v>
+        <v>106.2335562898444</v>
       </c>
       <c r="Y17" t="n">
-        <v>117.6301540860433</v>
+        <v>117.6301540860438</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>59.80238424167216</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T18" t="n">
-        <v>185.4764132683503</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>216.2882692949636</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>29.73878926635129</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>96.04478825605516</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9556149377512</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>155.3344859367049</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,28 +2044,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.12980963648914</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>12.32705781147345</v>
+        <v>12.32705781147334</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>235.9242678551488</v>
+        <v>11.31855468389767</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>118.1268213389619</v>
+        <v>118.1268213389617</v>
       </c>
       <c r="C20" t="n">
-        <v>106.1381382966436</v>
+        <v>106.1381382966435</v>
       </c>
       <c r="D20" t="n">
-        <v>97.11944234117158</v>
+        <v>97.11944234117146</v>
       </c>
       <c r="E20" t="n">
-        <v>118.8615799110771</v>
+        <v>118.861579911077</v>
       </c>
       <c r="F20" t="n">
-        <v>138.0333959990543</v>
+        <v>138.0333959990542</v>
       </c>
       <c r="G20" t="n">
-        <v>139.3537407829926</v>
+        <v>139.3537407829925</v>
       </c>
       <c r="H20" t="n">
-        <v>51.23968003881658</v>
+        <v>51.23968003881646</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>61.63319857914098</v>
+        <v>61.63319857914087</v>
       </c>
       <c r="W20" t="n">
-        <v>86.93329805709789</v>
+        <v>86.93329805709777</v>
       </c>
       <c r="X20" t="n">
-        <v>106.2335562898445</v>
+        <v>106.2335562898444</v>
       </c>
       <c r="Y20" t="n">
-        <v>117.6301540860433</v>
+        <v>117.6301540860431</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.584929365026</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>56.40745017229531</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>38.82520712046112</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U21" t="n">
         <v>216.2882692949636</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>76.58721844690882</v>
       </c>
     </row>
     <row r="22">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>128.3197081195045</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>12.32705781147345</v>
+        <v>284.3033405953505</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>11.31855468389779</v>
+        <v>261.1766242536788</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>118.1268213389619</v>
+        <v>118.1268213389617</v>
       </c>
       <c r="C23" t="n">
-        <v>106.1381382966436</v>
+        <v>106.1381382966435</v>
       </c>
       <c r="D23" t="n">
-        <v>97.11944234117158</v>
+        <v>97.11944234117146</v>
       </c>
       <c r="E23" t="n">
-        <v>118.8615799110771</v>
+        <v>118.861579911077</v>
       </c>
       <c r="F23" t="n">
-        <v>138.0333959990543</v>
+        <v>138.0333959990542</v>
       </c>
       <c r="G23" t="n">
-        <v>139.3537407829926</v>
+        <v>139.3537407829925</v>
       </c>
       <c r="H23" t="n">
-        <v>51.23968003881658</v>
+        <v>51.23968003881646</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>61.63319857914098</v>
+        <v>61.63319857914087</v>
       </c>
       <c r="W23" t="n">
-        <v>86.93329805709789</v>
+        <v>86.93329805709777</v>
       </c>
       <c r="X23" t="n">
-        <v>106.2335562898445</v>
+        <v>106.2335562898444</v>
       </c>
       <c r="Y23" t="n">
-        <v>117.6301540860433</v>
+        <v>117.6301540860431</v>
       </c>
     </row>
     <row r="24">
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1132721997666</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>38.82520712046112</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T24" t="n">
-        <v>38.20400261198562</v>
+        <v>146.0822660881686</v>
       </c>
       <c r="U24" t="n">
         <v>216.2882692949636</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>125.7223092342732</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9556149377512</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.4929323504436</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.12980963648914</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>86.03029751464787</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>12.32705781147345</v>
+        <v>12.32705781147334</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>11.31855468389779</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>268.1009004848028</v>
       </c>
       <c r="E26" t="n">
-        <v>289.8430380547082</v>
+        <v>289.8430380547083</v>
       </c>
       <c r="F26" t="n">
-        <v>309.0148541426854</v>
+        <v>309.0148541426855</v>
       </c>
       <c r="G26" t="n">
-        <v>310.3351989266237</v>
+        <v>310.3351989266238</v>
       </c>
       <c r="H26" t="n">
-        <v>222.2211381824477</v>
+        <v>222.2211381824478</v>
       </c>
       <c r="I26" t="n">
-        <v>46.46448383044608</v>
+        <v>46.46448383044611</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.39487552718225</v>
+        <v>70.39487552718228</v>
       </c>
       <c r="T26" t="n">
         <v>118.4374612367759</v>
       </c>
       <c r="U26" t="n">
-        <v>151.2926244338212</v>
+        <v>151.2926244338213</v>
       </c>
       <c r="V26" t="n">
-        <v>232.6146567227721</v>
+        <v>232.6146567227722</v>
       </c>
       <c r="W26" t="n">
-        <v>257.914756200729</v>
+        <v>257.9147562007291</v>
       </c>
       <c r="X26" t="n">
-        <v>277.2150144334756</v>
+        <v>277.2150144334757</v>
       </c>
       <c r="Y26" t="n">
         <v>288.6116122296744</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.7249903572901</v>
+        <v>80.72499035729012</v>
       </c>
       <c r="C28" t="n">
-        <v>66.92498520269058</v>
+        <v>66.92498520269061</v>
       </c>
       <c r="D28" t="n">
-        <v>50.54634960026897</v>
+        <v>50.546349600269</v>
       </c>
       <c r="E28" t="n">
-        <v>49.49409945604842</v>
+        <v>49.49409945604845</v>
       </c>
       <c r="F28" t="n">
-        <v>49.96102378423473</v>
+        <v>49.96102378423475</v>
       </c>
       <c r="G28" t="n">
-        <v>65.96079029750533</v>
+        <v>65.96079029750535</v>
       </c>
       <c r="H28" t="n">
-        <v>54.33966129645897</v>
+        <v>54.339661296459</v>
       </c>
       <c r="I28" t="n">
-        <v>33.49810771019769</v>
+        <v>33.49810771019771</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66960724833756</v>
+        <v>34.66960724833758</v>
       </c>
       <c r="S28" t="n">
         <v>105.7864520493391</v>
@@ -2773,13 +2773,13 @@
         <v>157.1331267569157</v>
       </c>
       <c r="W28" t="n">
-        <v>182.3000128275289</v>
+        <v>182.300012827529</v>
       </c>
       <c r="X28" t="n">
         <v>127.9451148233321</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.8199825793997</v>
+        <v>118.8199825793998</v>
       </c>
     </row>
     <row r="29">
@@ -3035,19 +3035,19 @@
         <v>268.1009004848028</v>
       </c>
       <c r="E32" t="n">
-        <v>289.8430380547082</v>
+        <v>289.8430380547083</v>
       </c>
       <c r="F32" t="n">
-        <v>309.0148541426854</v>
+        <v>309.0148541426855</v>
       </c>
       <c r="G32" t="n">
-        <v>310.3351989266237</v>
+        <v>310.3351989266238</v>
       </c>
       <c r="H32" t="n">
-        <v>222.2211381824477</v>
+        <v>222.2211381824478</v>
       </c>
       <c r="I32" t="n">
-        <v>46.46448383044608</v>
+        <v>46.4644838304461</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.39487552718225</v>
+        <v>70.39487552718226</v>
       </c>
       <c r="T32" t="n">
         <v>118.4374612367759</v>
@@ -3086,13 +3086,13 @@
         <v>151.2926244338212</v>
       </c>
       <c r="V32" t="n">
-        <v>232.6146567227721</v>
+        <v>232.6146567227722</v>
       </c>
       <c r="W32" t="n">
-        <v>257.914756200729</v>
+        <v>257.9147562007291</v>
       </c>
       <c r="X32" t="n">
-        <v>277.2150144334756</v>
+        <v>277.2150144334757</v>
       </c>
       <c r="Y32" t="n">
         <v>288.6116122296744</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.7249903572901</v>
+        <v>80.72499035729011</v>
       </c>
       <c r="C34" t="n">
-        <v>66.92498520269058</v>
+        <v>66.92498520269059</v>
       </c>
       <c r="D34" t="n">
-        <v>50.54634960026897</v>
+        <v>50.54634960026898</v>
       </c>
       <c r="E34" t="n">
-        <v>49.49409945604842</v>
+        <v>49.49409945604843</v>
       </c>
       <c r="F34" t="n">
-        <v>49.96102378423473</v>
+        <v>49.96102378423474</v>
       </c>
       <c r="G34" t="n">
-        <v>65.96079029750533</v>
+        <v>65.96079029750534</v>
       </c>
       <c r="H34" t="n">
-        <v>54.33966129645898</v>
+        <v>54.339661296459</v>
       </c>
       <c r="I34" t="n">
-        <v>33.4981077101977</v>
+        <v>33.49810771019771</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66960724833757</v>
+        <v>34.66960724833758</v>
       </c>
       <c r="S34" t="n">
         <v>105.7864520493391</v>
@@ -3247,13 +3247,13 @@
         <v>157.1331267569157</v>
       </c>
       <c r="W34" t="n">
-        <v>182.3000128275289</v>
+        <v>182.300012827529</v>
       </c>
       <c r="X34" t="n">
         <v>127.9451148233321</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.8199825793997</v>
+        <v>118.8199825793998</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>210.3049220700379</v>
+        <v>210.3049220700381</v>
       </c>
       <c r="C35" t="n">
-        <v>198.3162390277197</v>
+        <v>198.3162390277198</v>
       </c>
       <c r="D35" t="n">
-        <v>189.2975430722477</v>
+        <v>189.2975430722478</v>
       </c>
       <c r="E35" t="n">
-        <v>211.0396806421532</v>
+        <v>211.0396806421533</v>
       </c>
       <c r="F35" t="n">
-        <v>230.2114967301304</v>
+        <v>230.2114967301305</v>
       </c>
       <c r="G35" t="n">
-        <v>231.5318415140687</v>
+        <v>231.5318415140688</v>
       </c>
       <c r="H35" t="n">
-        <v>143.4177807698927</v>
+        <v>143.4177807698928</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>39.63410382422082</v>
+        <v>39.63410382422097</v>
       </c>
       <c r="U35" t="n">
-        <v>72.48926702126616</v>
+        <v>72.4892670212663</v>
       </c>
       <c r="V35" t="n">
-        <v>153.8112993102171</v>
+        <v>153.8112993102172</v>
       </c>
       <c r="W35" t="n">
-        <v>179.111398788174</v>
+        <v>179.1113987881741</v>
       </c>
       <c r="X35" t="n">
-        <v>198.4116570209206</v>
+        <v>198.4116570209207</v>
       </c>
       <c r="Y35" t="n">
-        <v>209.8082548171193</v>
+        <v>209.8082548171195</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3351,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
@@ -3360,10 +3360,10 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I36" t="n">
-        <v>56.40745017229531</v>
+        <v>18.47367897450824</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>151.1824510945779</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.921632944735023</v>
+        <v>1.921632944735165</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.12980963648914</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>26.98309463678405</v>
+        <v>26.98309463678419</v>
       </c>
       <c r="T37" t="n">
-        <v>49.87425416516511</v>
+        <v>168.0683660247877</v>
       </c>
       <c r="U37" t="n">
-        <v>207.5694607656841</v>
+        <v>104.5051585425497</v>
       </c>
       <c r="V37" t="n">
-        <v>78.32976934436061</v>
+        <v>78.32976934436076</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>103.496655414974</v>
       </c>
       <c r="X37" t="n">
-        <v>49.14175741077699</v>
+        <v>49.14175741077713</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.01662516684468</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>210.3049220700379</v>
+        <v>210.304922070038</v>
       </c>
       <c r="C38" t="n">
         <v>198.3162390277197</v>
@@ -3509,7 +3509,7 @@
         <v>189.2975430722477</v>
       </c>
       <c r="E38" t="n">
-        <v>211.0396806421532</v>
+        <v>211.0396806421533</v>
       </c>
       <c r="F38" t="n">
         <v>230.2114967301304</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>39.63410382422082</v>
+        <v>39.63410382422087</v>
       </c>
       <c r="U38" t="n">
-        <v>72.48926702126616</v>
+        <v>72.48926702126622</v>
       </c>
       <c r="V38" t="n">
         <v>153.8112993102171</v>
@@ -3569,7 +3569,7 @@
         <v>198.4116570209206</v>
       </c>
       <c r="Y38" t="n">
-        <v>209.8082548171193</v>
+        <v>209.8082548171194</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
-        <v>121.775233855759</v>
+        <v>128.7738272193062</v>
       </c>
       <c r="D39" t="n">
         <v>137.45025063969</v>
@@ -3597,10 +3597,10 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H39" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>56.40745017229531</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>38.82520712046112</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T39" t="n">
         <v>185.4764132683503</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.921632944735023</v>
+        <v>1.92163294473508</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>103.064302223134</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.12980963648914</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>26.98309463678405</v>
+        <v>26.9830946367841</v>
       </c>
       <c r="T40" t="n">
-        <v>49.87425416516511</v>
+        <v>229.6724362179661</v>
       </c>
       <c r="U40" t="n">
-        <v>104.5051585425495</v>
+        <v>104.5051585425496</v>
       </c>
       <c r="V40" t="n">
-        <v>78.32976934436061</v>
+        <v>78.32976934436067</v>
       </c>
       <c r="W40" t="n">
-        <v>251.0000252311042</v>
+        <v>103.4966554149739</v>
       </c>
       <c r="X40" t="n">
-        <v>49.14175741077699</v>
+        <v>49.14175741077705</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.01662516684468</v>
+        <v>40.01662516684473</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>210.7131640938349</v>
+        <v>210.7131640938348</v>
       </c>
       <c r="C41" t="n">
-        <v>198.7244810515167</v>
+        <v>198.7244810515166</v>
       </c>
       <c r="D41" t="n">
-        <v>189.7057850960447</v>
+        <v>189.7057850960446</v>
       </c>
       <c r="E41" t="n">
-        <v>211.4479226659502</v>
+        <v>211.4479226659501</v>
       </c>
       <c r="F41" t="n">
-        <v>230.6197387539274</v>
+        <v>230.6197387539273</v>
       </c>
       <c r="G41" t="n">
-        <v>231.9400835378657</v>
+        <v>231.9400835378656</v>
       </c>
       <c r="H41" t="n">
         <v>143.8260227936896</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>40.0423458480178</v>
+        <v>40.04234584801772</v>
       </c>
       <c r="U41" t="n">
-        <v>72.89750904506315</v>
+        <v>72.89750904506306</v>
       </c>
       <c r="V41" t="n">
-        <v>154.2195413340141</v>
+        <v>154.219541334014</v>
       </c>
       <c r="W41" t="n">
-        <v>179.519640811971</v>
+        <v>179.5196408119709</v>
       </c>
       <c r="X41" t="n">
-        <v>198.8198990447176</v>
+        <v>198.8198990447175</v>
       </c>
       <c r="Y41" t="n">
-        <v>210.2164968409163</v>
+        <v>210.2164968409162</v>
       </c>
     </row>
     <row r="42">
@@ -3831,13 +3831,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.1132721997666</v>
+        <v>44.70015952468226</v>
       </c>
       <c r="H42" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>56.40745017229531</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>38.82520712046112</v>
       </c>
       <c r="S42" t="n">
-        <v>23.40319430595946</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T42" t="n">
         <v>185.4764132683503</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.32987496853201</v>
+        <v>2.329874968531925</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>27.39133666058103</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T43" t="n">
-        <v>50.28249618896209</v>
+        <v>165.6189138820071</v>
       </c>
       <c r="U43" t="n">
-        <v>104.9134005663465</v>
+        <v>104.9134005663464</v>
       </c>
       <c r="V43" t="n">
-        <v>78.7380113681576</v>
+        <v>78.73801136815752</v>
       </c>
       <c r="W43" t="n">
-        <v>247.0900809203044</v>
+        <v>103.9048974387708</v>
       </c>
       <c r="X43" t="n">
-        <v>49.54999943457398</v>
+        <v>49.54999943457389</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.42486719064166</v>
+        <v>40.42486719064158</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>210.713164093835</v>
+        <v>210.7131640938349</v>
       </c>
       <c r="C44" t="n">
         <v>198.7244810515167</v>
@@ -3992,7 +3992,7 @@
         <v>231.9400835378657</v>
       </c>
       <c r="H44" t="n">
-        <v>143.8260227936897</v>
+        <v>143.8260227936896</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>40.04234584801786</v>
+        <v>40.0423458480178</v>
       </c>
       <c r="U44" t="n">
-        <v>72.8975090450632</v>
+        <v>72.89750904506315</v>
       </c>
       <c r="V44" t="n">
         <v>154.2195413340141</v>
@@ -4043,7 +4043,7 @@
         <v>198.8198990447176</v>
       </c>
       <c r="Y44" t="n">
-        <v>210.2164968409164</v>
+        <v>210.2164968409163</v>
       </c>
     </row>
     <row r="45">
@@ -4068,10 +4068,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.1132721997666</v>
+        <v>5.336367639936882</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>169.9321557381949</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
         <v>190.5961130869169</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.329874968532067</v>
+        <v>2.32987496853201</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>155.3344859367049</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>135.6644318885835</v>
+        <v>115.3364176930446</v>
       </c>
       <c r="S46" t="n">
-        <v>27.39133666058109</v>
+        <v>27.39133666058103</v>
       </c>
       <c r="T46" t="n">
-        <v>50.28249618896215</v>
+        <v>50.28249618896209</v>
       </c>
       <c r="U46" t="n">
-        <v>108.6408404631062</v>
+        <v>284.3033405953505</v>
       </c>
       <c r="V46" t="n">
-        <v>78.73801136815766</v>
+        <v>78.7380113681576</v>
       </c>
       <c r="W46" t="n">
         <v>103.9048974387709</v>
       </c>
       <c r="X46" t="n">
-        <v>49.54999943457403</v>
+        <v>49.54999943457398</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.42486719064172</v>
+        <v>40.42486719064166</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>602.1634726992248</v>
+        <v>464.2605067162216</v>
       </c>
       <c r="C11" t="n">
-        <v>393.3506232920606</v>
+        <v>464.2605067162216</v>
       </c>
       <c r="D11" t="n">
-        <v>193.6475677793126</v>
+        <v>264.5574512034735</v>
       </c>
       <c r="E11" t="n">
-        <v>176.8870310416173</v>
+        <v>264.5574512034735</v>
       </c>
       <c r="F11" t="n">
-        <v>176.8870310416173</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="G11" t="n">
-        <v>176.8870310416173</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H11" t="n">
-        <v>23.52716977367233</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I11" t="n">
-        <v>23.52716977367233</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J11" t="n">
-        <v>23.52716977367233</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="K11" t="n">
-        <v>314.6758957228673</v>
+        <v>142.9531442869391</v>
       </c>
       <c r="L11" t="n">
-        <v>605.8246216720623</v>
+        <v>434.1018702361339</v>
       </c>
       <c r="M11" t="n">
-        <v>725.2505961853292</v>
+        <v>434.1018702361339</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2505961853292</v>
+        <v>725.2505961853287</v>
       </c>
       <c r="O11" t="n">
-        <v>725.2505961853292</v>
+        <v>725.2505961853287</v>
       </c>
       <c r="P11" t="n">
         <v>1016.399322134524</v>
@@ -5069,22 +5069,22 @@
         <v>1176.358488683616</v>
       </c>
       <c r="T11" t="n">
-        <v>1176.358488683616</v>
+        <v>1127.830624330491</v>
       </c>
       <c r="U11" t="n">
-        <v>1176.358488683616</v>
+        <v>1046.115726444997</v>
       </c>
       <c r="V11" t="n">
-        <v>1012.500123839586</v>
+        <v>882.2573616009669</v>
       </c>
       <c r="W11" t="n">
-        <v>823.0861029572155</v>
+        <v>692.8433407185963</v>
       </c>
       <c r="X11" t="n">
-        <v>823.0861029572155</v>
+        <v>685.1831369742123</v>
       </c>
       <c r="Y11" t="n">
-        <v>823.0861029572155</v>
+        <v>685.1831369742123</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>420.8081078829507</v>
+        <v>162.3658067834602</v>
       </c>
       <c r="C12" t="n">
-        <v>259.1044351239054</v>
+        <v>162.3658067834602</v>
       </c>
       <c r="D12" t="n">
-        <v>120.2657981141175</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="E12" t="n">
-        <v>120.2657981141175</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="F12" t="n">
-        <v>120.2657981141175</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="G12" t="n">
-        <v>120.2657981141175</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H12" t="n">
-        <v>23.52716977367233</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I12" t="n">
-        <v>23.52716977367233</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J12" t="n">
-        <v>23.52716977367233</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="K12" t="n">
-        <v>23.52716977367233</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="L12" t="n">
-        <v>23.52716977367233</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="M12" t="n">
-        <v>314.6758957228673</v>
+        <v>394.8464152398759</v>
       </c>
       <c r="N12" t="n">
-        <v>605.8246216720623</v>
+        <v>685.9951411890708</v>
       </c>
       <c r="O12" t="n">
-        <v>685.9951411890713</v>
+        <v>977.1438671382656</v>
       </c>
       <c r="P12" t="n">
-        <v>977.1438671382663</v>
+        <v>977.1438671382656</v>
       </c>
       <c r="Q12" t="n">
         <v>1176.358488683616</v>
@@ -5145,25 +5145,25 @@
         <v>1176.358488683616</v>
       </c>
       <c r="S12" t="n">
-        <v>1176.358488683616</v>
+        <v>1029.711924172718</v>
       </c>
       <c r="T12" t="n">
-        <v>1162.129485551372</v>
+        <v>842.3620117804445</v>
       </c>
       <c r="U12" t="n">
-        <v>1116.777395523558</v>
+        <v>623.8890124926024</v>
       </c>
       <c r="V12" t="n">
-        <v>888.3817729718921</v>
+        <v>395.4933899409364</v>
       </c>
       <c r="W12" t="n">
-        <v>797.5449558768097</v>
+        <v>327.2984304342748</v>
       </c>
       <c r="X12" t="n">
-        <v>772.7488770146327</v>
+        <v>181.766223873853</v>
       </c>
       <c r="Y12" t="n">
-        <v>580.2275506642115</v>
+        <v>162.3658067834602</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.52716977367233</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="C13" t="n">
-        <v>23.52716977367233</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="D13" t="n">
-        <v>23.52716977367233</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="E13" t="n">
-        <v>23.52716977367233</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="F13" t="n">
-        <v>23.52716977367233</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="G13" t="n">
-        <v>23.52716977367233</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H13" t="n">
-        <v>23.52716977367233</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I13" t="n">
-        <v>23.52716977367233</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J13" t="n">
-        <v>23.52716977367233</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="K13" t="n">
-        <v>88.7545201713599</v>
+        <v>88.75452017135989</v>
       </c>
       <c r="L13" t="n">
-        <v>229.8283602936761</v>
+        <v>229.828360293676</v>
       </c>
       <c r="M13" t="n">
-        <v>390.4883917441605</v>
+        <v>390.4883917441604</v>
       </c>
       <c r="N13" t="n">
         <v>550.5627442088385</v>
@@ -5218,31 +5218,31 @@
         <v>783.3870097116667</v>
       </c>
       <c r="Q13" t="n">
-        <v>768.104373715213</v>
+        <v>783.3870097116667</v>
       </c>
       <c r="R13" t="n">
-        <v>768.104373715213</v>
+        <v>783.3870097116667</v>
       </c>
       <c r="S13" t="n">
-        <v>732.3553065211152</v>
+        <v>574.5170332575403</v>
       </c>
       <c r="T13" t="n">
-        <v>628.8324125048905</v>
+        <v>515.6455827014414</v>
       </c>
       <c r="U13" t="n">
-        <v>514.7782302544639</v>
+        <v>341.6573209944354</v>
       </c>
       <c r="V13" t="n">
-        <v>427.1638350729149</v>
+        <v>254.0429258128864</v>
       </c>
       <c r="W13" t="n">
-        <v>314.1283428503424</v>
+        <v>141.007433590314</v>
       </c>
       <c r="X13" t="n">
-        <v>255.9967880057466</v>
+        <v>82.87587874571818</v>
       </c>
       <c r="Y13" t="n">
-        <v>33.96162919802372</v>
+        <v>33.9616291980237</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>616.7855490623865</v>
+        <v>635.7790753046359</v>
       </c>
       <c r="C14" t="n">
-        <v>616.7855490623865</v>
+        <v>635.7790753046359</v>
       </c>
       <c r="D14" t="n">
-        <v>417.0824935496386</v>
+        <v>635.7790753046359</v>
       </c>
       <c r="E14" t="n">
-        <v>417.0824935496386</v>
+        <v>414.1142646707711</v>
       </c>
       <c r="F14" t="n">
         <v>265.8911328034112</v>
       </c>
       <c r="G14" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H14" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I14" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J14" t="n">
-        <v>23.52716977367234</v>
+        <v>147.0265863185275</v>
       </c>
       <c r="K14" t="n">
-        <v>314.6758957228674</v>
+        <v>438.1753122677223</v>
       </c>
       <c r="L14" t="n">
-        <v>605.8246216720626</v>
+        <v>438.1753122677223</v>
       </c>
       <c r="M14" t="n">
-        <v>896.9733476212577</v>
+        <v>725.2505961853287</v>
       </c>
       <c r="N14" t="n">
-        <v>896.9733476212577</v>
+        <v>725.2505961853287</v>
       </c>
       <c r="O14" t="n">
-        <v>1176.358488683617</v>
+        <v>1016.399322134524</v>
       </c>
       <c r="P14" t="n">
-        <v>1176.358488683617</v>
+        <v>1016.399322134524</v>
       </c>
       <c r="Q14" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="R14" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="S14" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="T14" t="n">
-        <v>1127.830624330492</v>
+        <v>1127.830624330491</v>
       </c>
       <c r="U14" t="n">
-        <v>1046.115726444998</v>
+        <v>1046.115726444997</v>
       </c>
       <c r="V14" t="n">
-        <v>1046.115726444998</v>
+        <v>1046.115726444997</v>
       </c>
       <c r="W14" t="n">
-        <v>1046.115726444998</v>
+        <v>856.7017055626266</v>
       </c>
       <c r="X14" t="n">
-        <v>837.20649522652</v>
+        <v>856.7017055626266</v>
       </c>
       <c r="Y14" t="n">
-        <v>616.7855490623865</v>
+        <v>856.7017055626266</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>572.4848594229436</v>
+        <v>437.7910613728179</v>
       </c>
       <c r="C15" t="n">
-        <v>572.4848594229436</v>
+        <v>437.7910613728179</v>
       </c>
       <c r="D15" t="n">
-        <v>433.6462224131556</v>
+        <v>298.95242436303</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6182124700268</v>
+        <v>151.9244144199012</v>
       </c>
       <c r="F15" t="n">
         <v>151.9244144199012</v>
       </c>
       <c r="G15" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H15" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I15" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J15" t="n">
-        <v>114.4548830157154</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="K15" t="n">
-        <v>396.3714466953011</v>
+        <v>305.443733453258</v>
       </c>
       <c r="L15" t="n">
-        <v>396.3714466953011</v>
+        <v>596.5924594024528</v>
       </c>
       <c r="M15" t="n">
-        <v>687.5201726444963</v>
+        <v>596.5924594024528</v>
       </c>
       <c r="N15" t="n">
-        <v>687.5201726444963</v>
+        <v>685.9951411890708</v>
       </c>
       <c r="O15" t="n">
-        <v>978.6688985936914</v>
+        <v>977.1438671382656</v>
       </c>
       <c r="P15" t="n">
-        <v>978.6688985936914</v>
+        <v>977.1438671382656</v>
       </c>
       <c r="Q15" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="R15" t="n">
-        <v>1137.141107753858</v>
+        <v>1137.141107753857</v>
       </c>
       <c r="S15" t="n">
-        <v>1132.27247337516</v>
+        <v>990.4945432429589</v>
       </c>
       <c r="T15" t="n">
-        <v>1118.043470242915</v>
+        <v>823.9302294115287</v>
       </c>
       <c r="U15" t="n">
-        <v>899.5704709550731</v>
+        <v>778.5781393837151</v>
       </c>
       <c r="V15" t="n">
-        <v>844.2957576634356</v>
+        <v>550.182516832049</v>
       </c>
       <c r="W15" t="n">
-        <v>776.1007981567741</v>
+        <v>481.9875573253876</v>
       </c>
       <c r="X15" t="n">
-        <v>751.3047192945971</v>
+        <v>457.1914784632106</v>
       </c>
       <c r="Y15" t="n">
-        <v>731.9043022042044</v>
+        <v>437.7910613728179</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>176.5990629459096</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="C16" t="n">
-        <v>176.5990629459096</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="D16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="E16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="F16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="G16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="K16" t="n">
-        <v>88.75452017135991</v>
+        <v>88.75452017135989</v>
       </c>
       <c r="L16" t="n">
-        <v>229.8283602936761</v>
+        <v>229.828360293676</v>
       </c>
       <c r="M16" t="n">
-        <v>390.4883917441605</v>
+        <v>390.4883917441604</v>
       </c>
       <c r="N16" t="n">
         <v>550.5627442088385</v>
@@ -5461,25 +5461,25 @@
         <v>783.3870097116667</v>
       </c>
       <c r="S16" t="n">
-        <v>747.6379425175688</v>
+        <v>687.7038630609893</v>
       </c>
       <c r="T16" t="n">
-        <v>688.7664919614699</v>
+        <v>628.8324125048904</v>
       </c>
       <c r="U16" t="n">
-        <v>574.7123097110433</v>
+        <v>514.7782302544638</v>
       </c>
       <c r="V16" t="n">
-        <v>487.0979145294944</v>
+        <v>254.0429258128863</v>
       </c>
       <c r="W16" t="n">
-        <v>374.062422306922</v>
+        <v>141.0074335903139</v>
       </c>
       <c r="X16" t="n">
-        <v>315.9308674623263</v>
+        <v>82.87587874571813</v>
       </c>
       <c r="Y16" t="n">
-        <v>267.0166179146319</v>
+        <v>33.96162919802367</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>680.8463388340323</v>
+        <v>680.8463388340308</v>
       </c>
       <c r="C17" t="n">
-        <v>573.6360981303517</v>
+        <v>573.6360981303505</v>
       </c>
       <c r="D17" t="n">
-        <v>475.5356513210875</v>
+        <v>475.5356513210865</v>
       </c>
       <c r="E17" t="n">
-        <v>355.4734493907065</v>
+        <v>355.4734493907057</v>
       </c>
       <c r="F17" t="n">
-        <v>216.0457766643892</v>
+        <v>216.0457766643884</v>
       </c>
       <c r="G17" t="n">
-        <v>75.28442233813354</v>
+        <v>75.2844223381334</v>
       </c>
       <c r="H17" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I17" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0265863185275</v>
+        <v>142.9531442869391</v>
       </c>
       <c r="K17" t="n">
-        <v>147.0265863185275</v>
+        <v>142.9531442869391</v>
       </c>
       <c r="L17" t="n">
-        <v>438.1753122677226</v>
+        <v>434.1018702361339</v>
       </c>
       <c r="M17" t="n">
-        <v>729.3240382169178</v>
+        <v>725.2505961853287</v>
       </c>
       <c r="N17" t="n">
-        <v>729.3240382169178</v>
+        <v>725.2505961853287</v>
       </c>
       <c r="O17" t="n">
-        <v>729.3240382169178</v>
+        <v>725.2505961853287</v>
       </c>
       <c r="P17" t="n">
-        <v>1020.472764166113</v>
+        <v>1016.399322134524</v>
       </c>
       <c r="Q17" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="R17" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="S17" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="T17" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="U17" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="V17" t="n">
-        <v>1114.10273254307</v>
+        <v>1114.102732543069</v>
       </c>
       <c r="W17" t="n">
         <v>1026.291320364183</v>
       </c>
       <c r="X17" t="n">
-        <v>918.984697849189</v>
+        <v>918.9846978491883</v>
       </c>
       <c r="Y17" t="n">
-        <v>800.1663603885393</v>
+        <v>800.1663603885377</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>309.3938167265891</v>
+        <v>162.3658067834602</v>
       </c>
       <c r="C18" t="n">
-        <v>309.3938167265891</v>
+        <v>162.3658067834602</v>
       </c>
       <c r="D18" t="n">
-        <v>170.5551797168011</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="E18" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="F18" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="G18" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H18" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I18" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J18" t="n">
-        <v>23.52716977367234</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="K18" t="n">
-        <v>23.52716977367234</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="L18" t="n">
-        <v>314.6758957228674</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="M18" t="n">
-        <v>605.8246216720626</v>
+        <v>405.6036089649102</v>
       </c>
       <c r="N18" t="n">
-        <v>685.9951411890715</v>
+        <v>405.6036089649102</v>
       </c>
       <c r="O18" t="n">
-        <v>685.9951411890715</v>
+        <v>685.9951411890708</v>
       </c>
       <c r="P18" t="n">
-        <v>977.1438671382667</v>
+        <v>977.1438671382656</v>
       </c>
       <c r="Q18" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="R18" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="S18" t="n">
-        <v>1115.952039954655</v>
+        <v>1029.711924172718</v>
       </c>
       <c r="T18" t="n">
-        <v>928.602127562382</v>
+        <v>1029.711924172718</v>
       </c>
       <c r="U18" t="n">
-        <v>710.1291282745399</v>
+        <v>811.2389248848755</v>
       </c>
       <c r="V18" t="n">
-        <v>710.1291282745399</v>
+        <v>582.8433023332094</v>
       </c>
       <c r="W18" t="n">
-        <v>468.81325950785</v>
+        <v>552.8041212560869</v>
       </c>
       <c r="X18" t="n">
-        <v>468.81325950785</v>
+        <v>354.8871331338814</v>
       </c>
       <c r="Y18" t="n">
-        <v>468.81325950785</v>
+        <v>162.3658067834602</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>349.072726212517</v>
+        <v>120.5421074060513</v>
       </c>
       <c r="C19" t="n">
-        <v>349.072726212517</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="D19" t="n">
-        <v>349.072726212517</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="E19" t="n">
-        <v>349.072726212517</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="F19" t="n">
-        <v>349.072726212517</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="G19" t="n">
-        <v>180.4306909218591</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H19" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I19" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J19" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="K19" t="n">
-        <v>88.75452017135991</v>
+        <v>88.75452017135989</v>
       </c>
       <c r="L19" t="n">
-        <v>229.8283602936761</v>
+        <v>229.828360293676</v>
       </c>
       <c r="M19" t="n">
-        <v>390.4883917441605</v>
+        <v>390.4883917441604</v>
       </c>
       <c r="N19" t="n">
         <v>550.5627442088385</v>
@@ -5692,31 +5692,31 @@
         <v>783.3870097116667</v>
       </c>
       <c r="Q19" t="n">
-        <v>783.3870097116667</v>
+        <v>768.104373715213</v>
       </c>
       <c r="R19" t="n">
-        <v>783.3870097116667</v>
+        <v>768.104373715213</v>
       </c>
       <c r="S19" t="n">
-        <v>783.3870097116667</v>
+        <v>559.2343972610867</v>
       </c>
       <c r="T19" t="n">
-        <v>783.3870097116667</v>
+        <v>559.2343972610867</v>
       </c>
       <c r="U19" t="n">
-        <v>770.9354361647238</v>
+        <v>546.7828237141439</v>
       </c>
       <c r="V19" t="n">
-        <v>770.9354361647238</v>
+        <v>546.7828237141439</v>
       </c>
       <c r="W19" t="n">
-        <v>532.6280948968968</v>
+        <v>535.3499401950553</v>
       </c>
       <c r="X19" t="n">
-        <v>532.6280948968968</v>
+        <v>304.0974760904311</v>
       </c>
       <c r="Y19" t="n">
-        <v>532.6280948968968</v>
+        <v>304.0974760904311</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>680.8463388340323</v>
+        <v>680.8463388340322</v>
       </c>
       <c r="C20" t="n">
-        <v>573.6360981303518</v>
+        <v>573.6360981303519</v>
       </c>
       <c r="D20" t="n">
-        <v>475.5356513210876</v>
+        <v>475.5356513210875</v>
       </c>
       <c r="E20" t="n">
-        <v>355.4734493907065</v>
+        <v>355.4734493907067</v>
       </c>
       <c r="F20" t="n">
-        <v>216.0457766643892</v>
+        <v>216.0457766643895</v>
       </c>
       <c r="G20" t="n">
-        <v>75.28442233813354</v>
+        <v>75.2844223381334</v>
       </c>
       <c r="H20" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I20" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J20" t="n">
-        <v>23.52716977367234</v>
+        <v>142.9531442869391</v>
       </c>
       <c r="K20" t="n">
-        <v>23.52716977367234</v>
+        <v>142.9531442869391</v>
       </c>
       <c r="L20" t="n">
-        <v>23.52716977367234</v>
+        <v>434.1018702361339</v>
       </c>
       <c r="M20" t="n">
-        <v>314.6758957228674</v>
+        <v>434.1018702361339</v>
       </c>
       <c r="N20" t="n">
-        <v>594.0610367852266</v>
+        <v>725.2505961853287</v>
       </c>
       <c r="O20" t="n">
-        <v>885.2097627344217</v>
+        <v>1016.399322134524</v>
       </c>
       <c r="P20" t="n">
-        <v>1176.358488683617</v>
+        <v>1016.399322134524</v>
       </c>
       <c r="Q20" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="R20" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="S20" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="T20" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="U20" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="V20" t="n">
         <v>1114.10273254307</v>
       </c>
       <c r="W20" t="n">
-        <v>1026.291320364184</v>
+        <v>1026.291320364183</v>
       </c>
       <c r="X20" t="n">
-        <v>918.9846978491892</v>
+        <v>918.9846978491887</v>
       </c>
       <c r="Y20" t="n">
-        <v>800.1663603885393</v>
+        <v>800.166360388539</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>366.3710391228469</v>
+        <v>309.393816726589</v>
       </c>
       <c r="C21" t="n">
-        <v>366.3710391228469</v>
+        <v>309.393816726589</v>
       </c>
       <c r="D21" t="n">
-        <v>227.532402113059</v>
+        <v>170.5551797168011</v>
       </c>
       <c r="E21" t="n">
-        <v>80.50439216993023</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="F21" t="n">
-        <v>80.50439216993023</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="G21" t="n">
-        <v>80.50439216993023</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H21" t="n">
-        <v>80.50439216993023</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I21" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J21" t="n">
-        <v>23.52716977367234</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="K21" t="n">
-        <v>23.52716977367234</v>
+        <v>396.3714466953011</v>
       </c>
       <c r="L21" t="n">
-        <v>314.6758957228674</v>
+        <v>396.3714466953011</v>
       </c>
       <c r="M21" t="n">
-        <v>314.6758957228674</v>
+        <v>396.3714466953011</v>
       </c>
       <c r="N21" t="n">
-        <v>605.8246216720626</v>
+        <v>685.9951411890708</v>
       </c>
       <c r="O21" t="n">
-        <v>685.9951411890715</v>
+        <v>685.9951411890708</v>
       </c>
       <c r="P21" t="n">
-        <v>977.1438671382667</v>
+        <v>977.1438671382656</v>
       </c>
       <c r="Q21" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="R21" t="n">
-        <v>1176.358488683617</v>
+        <v>1137.141107753857</v>
       </c>
       <c r="S21" t="n">
-        <v>1176.358488683617</v>
+        <v>990.4945432429589</v>
       </c>
       <c r="T21" t="n">
-        <v>1176.358488683617</v>
+        <v>803.1446308506859</v>
       </c>
       <c r="U21" t="n">
-        <v>957.8854893957747</v>
+        <v>584.6716315628438</v>
       </c>
       <c r="V21" t="n">
-        <v>729.4898668441086</v>
+        <v>584.6716315628438</v>
       </c>
       <c r="W21" t="n">
-        <v>488.1739980774187</v>
+        <v>584.6716315628438</v>
       </c>
       <c r="X21" t="n">
-        <v>488.1739980774187</v>
+        <v>386.7546434406383</v>
       </c>
       <c r="Y21" t="n">
-        <v>488.1739980774187</v>
+        <v>309.393816726589</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.5990629459096</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="C22" t="n">
-        <v>176.5990629459096</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="D22" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="E22" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="F22" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="G22" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H22" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I22" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J22" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="K22" t="n">
-        <v>88.75452017135991</v>
+        <v>88.75452017135989</v>
       </c>
       <c r="L22" t="n">
-        <v>229.8283602936761</v>
+        <v>229.828360293676</v>
       </c>
       <c r="M22" t="n">
-        <v>390.4883917441605</v>
+        <v>390.4883917441604</v>
       </c>
       <c r="N22" t="n">
         <v>550.5627442088385</v>
@@ -5935,25 +5935,25 @@
         <v>783.3870097116667</v>
       </c>
       <c r="S22" t="n">
-        <v>783.3870097116667</v>
+        <v>574.5170332575403</v>
       </c>
       <c r="T22" t="n">
-        <v>783.3870097116667</v>
+        <v>574.5170332575403</v>
       </c>
       <c r="U22" t="n">
-        <v>770.9354361647238</v>
+        <v>287.3419417470853</v>
       </c>
       <c r="V22" t="n">
-        <v>770.9354361647238</v>
+        <v>287.3419417470853</v>
       </c>
       <c r="W22" t="n">
-        <v>759.5025526456351</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="X22" t="n">
-        <v>528.2500885410109</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="Y22" t="n">
-        <v>306.2149297332879</v>
+        <v>23.52716977367231</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>680.8463388340323</v>
+        <v>680.8463388340315</v>
       </c>
       <c r="C23" t="n">
-        <v>573.6360981303519</v>
+        <v>573.636098130351</v>
       </c>
       <c r="D23" t="n">
-        <v>475.5356513210877</v>
+        <v>475.535651321087</v>
       </c>
       <c r="E23" t="n">
-        <v>355.4734493907068</v>
+        <v>355.473449390706</v>
       </c>
       <c r="F23" t="n">
-        <v>216.0457766643893</v>
+        <v>216.0457766643888</v>
       </c>
       <c r="G23" t="n">
-        <v>75.28442233813416</v>
+        <v>75.28442233813338</v>
       </c>
       <c r="H23" t="n">
-        <v>23.52716977367297</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I23" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J23" t="n">
         <v>147.0265863185275</v>
@@ -5993,46 +5993,46 @@
         <v>147.0265863185275</v>
       </c>
       <c r="L23" t="n">
-        <v>438.1753122677226</v>
+        <v>438.1753122677222</v>
       </c>
       <c r="M23" t="n">
-        <v>438.1753122677226</v>
+        <v>729.324038216917</v>
       </c>
       <c r="N23" t="n">
-        <v>729.3240382169178</v>
+        <v>729.324038216917</v>
       </c>
       <c r="O23" t="n">
-        <v>885.2097627344217</v>
+        <v>1020.472764166112</v>
       </c>
       <c r="P23" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q23" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R23" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S23" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T23" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="U23" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="V23" t="n">
-        <v>1114.10273254307</v>
+        <v>1114.102732543069</v>
       </c>
       <c r="W23" t="n">
-        <v>1026.291320364184</v>
+        <v>1026.291320364182</v>
       </c>
       <c r="X23" t="n">
-        <v>918.984697849189</v>
+        <v>918.984697849188</v>
       </c>
       <c r="Y23" t="n">
-        <v>800.1663603885393</v>
+        <v>800.1663603885384</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>410.3667155193917</v>
+        <v>185.2308425327176</v>
       </c>
       <c r="C24" t="n">
-        <v>248.6630427603464</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="D24" t="n">
-        <v>248.6630427603464</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="E24" t="n">
-        <v>248.6630427603464</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="F24" t="n">
-        <v>248.6630427603464</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="G24" t="n">
-        <v>120.2657981141175</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H24" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I24" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J24" t="n">
-        <v>23.52716977367234</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="K24" t="n">
-        <v>23.52716977367234</v>
+        <v>396.3714466953011</v>
       </c>
       <c r="L24" t="n">
-        <v>302.9123108360315</v>
+        <v>594.0610367852257</v>
       </c>
       <c r="M24" t="n">
-        <v>594.0610367852266</v>
+        <v>594.0610367852257</v>
       </c>
       <c r="N24" t="n">
-        <v>594.0610367852266</v>
+        <v>594.0610367852257</v>
       </c>
       <c r="O24" t="n">
-        <v>885.2097627344217</v>
+        <v>885.2097627344206</v>
       </c>
       <c r="P24" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q24" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R24" t="n">
-        <v>1137.141107753858</v>
+        <v>1137.141107753857</v>
       </c>
       <c r="S24" t="n">
-        <v>1137.141107753858</v>
+        <v>990.4945432429587</v>
       </c>
       <c r="T24" t="n">
-        <v>1098.55120612559</v>
+        <v>842.9366987094551</v>
       </c>
       <c r="U24" t="n">
-        <v>880.0782068377478</v>
+        <v>624.463699421613</v>
       </c>
       <c r="V24" t="n">
-        <v>651.6825842860817</v>
+        <v>624.463699421613</v>
       </c>
       <c r="W24" t="n">
-        <v>410.3667155193917</v>
+        <v>383.147830654923</v>
       </c>
       <c r="X24" t="n">
-        <v>410.3667155193917</v>
+        <v>185.2308425327176</v>
       </c>
       <c r="Y24" t="n">
-        <v>410.3667155193917</v>
+        <v>185.2308425327176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>759.5025526456351</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="C25" t="n">
-        <v>759.5025526456351</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5103210958641</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="E25" t="n">
-        <v>480.501306857183</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="F25" t="n">
-        <v>328.0206518829601</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="G25" t="n">
-        <v>159.3786165923023</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H25" t="n">
-        <v>159.3786165923023</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I25" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J25" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="K25" t="n">
-        <v>88.7545201713599</v>
+        <v>88.75452017135989</v>
       </c>
       <c r="L25" t="n">
-        <v>229.8283602936761</v>
+        <v>229.828360293676</v>
       </c>
       <c r="M25" t="n">
-        <v>390.4883917441605</v>
+        <v>390.4883917441604</v>
       </c>
       <c r="N25" t="n">
         <v>550.5627442088385</v>
@@ -6166,31 +6166,31 @@
         <v>783.3870097116667</v>
       </c>
       <c r="Q25" t="n">
-        <v>783.3870097116667</v>
+        <v>768.104373715213</v>
       </c>
       <c r="R25" t="n">
-        <v>783.3870097116667</v>
+        <v>631.0695940297751</v>
       </c>
       <c r="S25" t="n">
-        <v>783.3870097116667</v>
+        <v>544.1703036109388</v>
       </c>
       <c r="T25" t="n">
-        <v>783.3870097116667</v>
+        <v>544.1703036109388</v>
       </c>
       <c r="U25" t="n">
-        <v>770.9354361647238</v>
+        <v>531.7187300639961</v>
       </c>
       <c r="V25" t="n">
-        <v>770.9354361647238</v>
+        <v>531.7187300639961</v>
       </c>
       <c r="W25" t="n">
-        <v>759.5025526456351</v>
+        <v>245.5623285813952</v>
       </c>
       <c r="X25" t="n">
-        <v>759.5025526456351</v>
+        <v>245.5623285813952</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.5025526456351</v>
+        <v>23.52716977367231</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>1810.772001306256</v>
       </c>
       <c r="C26" t="n">
-        <v>1530.85321702315</v>
+        <v>1530.853217023151</v>
       </c>
       <c r="D26" t="n">
         <v>1260.044226634461</v>
       </c>
       <c r="E26" t="n">
-        <v>967.2734811246542</v>
+        <v>967.2734811246546</v>
       </c>
       <c r="F26" t="n">
-        <v>655.1372648189113</v>
+        <v>655.1372648189117</v>
       </c>
       <c r="G26" t="n">
         <v>341.6673669132305</v>
@@ -6224,19 +6224,19 @@
         <v>70.26774871838823</v>
       </c>
       <c r="J26" t="n">
-        <v>293.7520416570869</v>
+        <v>193.7671652632434</v>
       </c>
       <c r="K26" t="n">
-        <v>711.0637474076112</v>
+        <v>611.0788710137678</v>
       </c>
       <c r="L26" t="n">
-        <v>1254.690622475248</v>
+        <v>1154.705746081405</v>
       </c>
       <c r="M26" t="n">
-        <v>1854.462361416258</v>
+        <v>1754.477485022414</v>
       </c>
       <c r="N26" t="n">
-        <v>2381.534566131604</v>
+        <v>2281.549689737761</v>
       </c>
       <c r="O26" t="n">
         <v>2788.77709334913</v>
@@ -6257,10 +6257,10 @@
         <v>3322.647701814404</v>
       </c>
       <c r="U26" t="n">
-        <v>3169.826869052968</v>
+        <v>3169.826869052969</v>
       </c>
       <c r="V26" t="n">
-        <v>2934.862569332996</v>
+        <v>2934.862569332997</v>
       </c>
       <c r="W26" t="n">
         <v>2674.342613574684</v>
@@ -6315,13 +6315,13 @@
         <v>1446.722754179753</v>
       </c>
       <c r="N27" t="n">
-        <v>1712.363067575336</v>
+        <v>1513.148446029986</v>
       </c>
       <c r="O27" t="n">
-        <v>2181.808688164032</v>
+        <v>1982.594066618682</v>
       </c>
       <c r="P27" t="n">
-        <v>2545.901067556423</v>
+        <v>2346.686446011073</v>
       </c>
       <c r="Q27" t="n">
         <v>2545.901067556423</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>444.7374632107163</v>
+        <v>444.7374632107164</v>
       </c>
       <c r="C28" t="n">
-        <v>377.1364680564834</v>
+        <v>377.1364680564835</v>
       </c>
       <c r="D28" t="n">
-        <v>326.0795492683329</v>
+        <v>326.079549268333</v>
       </c>
       <c r="E28" t="n">
         <v>276.0855094137386</v>
@@ -6382,34 +6382,34 @@
         <v>70.26774871838823</v>
       </c>
       <c r="J28" t="n">
-        <v>130.6341355862128</v>
+        <v>130.6341355862134</v>
       </c>
       <c r="K28" t="n">
-        <v>295.8463623777437</v>
+        <v>295.8463623777444</v>
       </c>
       <c r="L28" t="n">
-        <v>536.9050788939034</v>
+        <v>536.905078893904</v>
       </c>
       <c r="M28" t="n">
-        <v>797.5499867382312</v>
+        <v>797.5499867382318</v>
       </c>
       <c r="N28" t="n">
         <v>1057.609215596753</v>
       </c>
       <c r="O28" t="n">
-        <v>1294.53011195495</v>
+        <v>1294.530111954951</v>
       </c>
       <c r="P28" t="n">
         <v>1490.403233887268</v>
       </c>
       <c r="Q28" t="n">
-        <v>1575.409598740987</v>
+        <v>1575.409598740988</v>
       </c>
       <c r="R28" t="n">
         <v>1540.389793439636</v>
       </c>
       <c r="S28" t="n">
-        <v>1433.534791369596</v>
+        <v>1433.534791369597</v>
       </c>
       <c r="T28" t="n">
         <v>1303.557405937556</v>
@@ -6418,16 +6418,16 @@
         <v>1118.397288811188</v>
       </c>
       <c r="V28" t="n">
-        <v>959.676958753697</v>
+        <v>959.6769587536972</v>
       </c>
       <c r="W28" t="n">
-        <v>775.5355316551829</v>
+        <v>775.5355316551831</v>
       </c>
       <c r="X28" t="n">
-        <v>646.2980419346454</v>
+        <v>646.2980419346457</v>
       </c>
       <c r="Y28" t="n">
-        <v>526.2778575110094</v>
+        <v>526.2778575110095</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.772001306257</v>
+        <v>1810.772001306256</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.853217023151</v>
+        <v>1530.85321702315</v>
       </c>
       <c r="D29" t="n">
         <v>1260.044226634461</v>
       </c>
       <c r="E29" t="n">
-        <v>967.2734811246548</v>
+        <v>967.2734811246544</v>
       </c>
       <c r="F29" t="n">
-        <v>655.1372648189117</v>
+        <v>655.1372648189115</v>
       </c>
       <c r="G29" t="n">
         <v>341.6673669132304</v>
@@ -6464,25 +6464,25 @@
         <v>293.7520416570869</v>
       </c>
       <c r="K29" t="n">
-        <v>711.0637474076113</v>
+        <v>711.0637474076112</v>
       </c>
       <c r="L29" t="n">
         <v>1254.690622475249</v>
       </c>
       <c r="M29" t="n">
-        <v>1854.462361416258</v>
+        <v>1754.477485022415</v>
       </c>
       <c r="N29" t="n">
-        <v>2341.065469516278</v>
+        <v>2341.065469516277</v>
       </c>
       <c r="O29" t="n">
-        <v>2838.043901352387</v>
+        <v>2848.292873127646</v>
       </c>
       <c r="P29" t="n">
-        <v>3253.443392976476</v>
+        <v>3204.176584973218</v>
       </c>
       <c r="Q29" t="n">
-        <v>3513.387435919411</v>
+        <v>3464.120627916154</v>
       </c>
       <c r="R29" t="n">
         <v>3513.387435919411</v>
@@ -6540,16 +6540,16 @@
         <v>70.26774871838823</v>
       </c>
       <c r="J30" t="n">
-        <v>70.26774871838823</v>
+        <v>161.1954619604313</v>
       </c>
       <c r="K30" t="n">
-        <v>352.1843123979739</v>
+        <v>443.112025640017</v>
       </c>
       <c r="L30" t="n">
-        <v>788.4993992897331</v>
+        <v>879.4271125317762</v>
       </c>
       <c r="M30" t="n">
-        <v>1355.79504093771</v>
+        <v>1446.722754179753</v>
       </c>
       <c r="N30" t="n">
         <v>1513.148446029986</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>444.7374632107161</v>
+        <v>444.7374632107162</v>
       </c>
       <c r="C31" t="n">
-        <v>377.1364680564832</v>
+        <v>377.1364680564834</v>
       </c>
       <c r="D31" t="n">
-        <v>326.0795492683328</v>
+        <v>326.0795492683329</v>
       </c>
       <c r="E31" t="n">
-        <v>276.0855094137384</v>
+        <v>276.0855094137385</v>
       </c>
       <c r="F31" t="n">
-        <v>225.6198288236023</v>
+        <v>225.6198288236025</v>
       </c>
       <c r="G31" t="n">
-        <v>158.9927679170313</v>
+        <v>158.9927679170314</v>
       </c>
       <c r="H31" t="n">
         <v>104.1042211529313</v>
@@ -6619,25 +6619,25 @@
         <v>70.26774871838823</v>
       </c>
       <c r="J31" t="n">
-        <v>130.6341355862127</v>
+        <v>130.6341355862126</v>
       </c>
       <c r="K31" t="n">
-        <v>295.8463623777437</v>
+        <v>295.8463623777436</v>
       </c>
       <c r="L31" t="n">
-        <v>536.9050788939034</v>
+        <v>536.9050788939032</v>
       </c>
       <c r="M31" t="n">
-        <v>797.5499867382307</v>
+        <v>797.5499867382312</v>
       </c>
       <c r="N31" t="n">
-        <v>1057.609215596752</v>
+        <v>1057.609215596753</v>
       </c>
       <c r="O31" t="n">
         <v>1294.53011195495</v>
       </c>
       <c r="P31" t="n">
-        <v>1490.403233887267</v>
+        <v>1490.403233887268</v>
       </c>
       <c r="Q31" t="n">
         <v>1575.409598740987</v>
@@ -6649,13 +6649,13 @@
         <v>1433.534791369596</v>
       </c>
       <c r="T31" t="n">
-        <v>1303.557405937556</v>
+        <v>1303.557405937555</v>
       </c>
       <c r="U31" t="n">
         <v>1118.397288811187</v>
       </c>
       <c r="V31" t="n">
-        <v>959.6769587536968</v>
+        <v>959.6769587536967</v>
       </c>
       <c r="W31" t="n">
         <v>775.5355316551827</v>
@@ -6664,7 +6664,7 @@
         <v>646.2980419346452</v>
       </c>
       <c r="Y31" t="n">
-        <v>526.2778575110091</v>
+        <v>526.2778575110092</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1810.772001306256</v>
+        <v>1810.772001306257</v>
       </c>
       <c r="C32" t="n">
-        <v>1530.85321702315</v>
+        <v>1530.853217023151</v>
       </c>
       <c r="D32" t="n">
-        <v>1260.04422663446</v>
+        <v>1260.044226634461</v>
       </c>
       <c r="E32" t="n">
-        <v>967.2734811246539</v>
+        <v>967.2734811246546</v>
       </c>
       <c r="F32" t="n">
-        <v>655.137264818911</v>
+        <v>655.1372648189115</v>
       </c>
       <c r="G32" t="n">
         <v>341.6673669132305</v>
@@ -6704,46 +6704,46 @@
         <v>711.0637474076112</v>
       </c>
       <c r="L32" t="n">
-        <v>1154.705746081405</v>
+        <v>1254.690622475248</v>
       </c>
       <c r="M32" t="n">
-        <v>1754.477485022415</v>
+        <v>1754.477485022414</v>
       </c>
       <c r="N32" t="n">
-        <v>2341.065469516278</v>
+        <v>2341.065469516277</v>
       </c>
       <c r="O32" t="n">
-        <v>2848.292873127647</v>
+        <v>2788.77709334913</v>
       </c>
       <c r="P32" t="n">
-        <v>3204.176584973218</v>
+        <v>3204.176584973219</v>
       </c>
       <c r="Q32" t="n">
-        <v>3464.120627916153</v>
+        <v>3464.120627916154</v>
       </c>
       <c r="R32" t="n">
-        <v>3513.387435919411</v>
+        <v>3513.387435919412</v>
       </c>
       <c r="S32" t="n">
-        <v>3442.281501043469</v>
+        <v>3442.28150104347</v>
       </c>
       <c r="T32" t="n">
-        <v>3322.647701814403</v>
+        <v>3322.647701814404</v>
       </c>
       <c r="U32" t="n">
-        <v>3169.826869052967</v>
+        <v>3169.826869052968</v>
       </c>
       <c r="V32" t="n">
-        <v>2934.862569332995</v>
+        <v>2934.862569332996</v>
       </c>
       <c r="W32" t="n">
-        <v>2674.342613574683</v>
+        <v>2674.342613574684</v>
       </c>
       <c r="X32" t="n">
-        <v>2394.327447480263</v>
+        <v>2394.327447480264</v>
       </c>
       <c r="Y32" t="n">
-        <v>2102.800566440188</v>
+        <v>2102.800566440189</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6777,16 @@
         <v>70.26774871838823</v>
       </c>
       <c r="J33" t="n">
-        <v>161.1954619604313</v>
+        <v>70.26774871838823</v>
       </c>
       <c r="K33" t="n">
-        <v>443.112025640017</v>
+        <v>352.1843123979739</v>
       </c>
       <c r="L33" t="n">
-        <v>443.112025640017</v>
+        <v>788.4993992897331</v>
       </c>
       <c r="M33" t="n">
-        <v>917.4432737811852</v>
+        <v>1355.79504093771</v>
       </c>
       <c r="N33" t="n">
         <v>1513.148446029986</v>
@@ -6865,10 +6865,10 @@
         <v>536.905078893903</v>
       </c>
       <c r="M34" t="n">
-        <v>797.5499867382309</v>
+        <v>797.5499867382308</v>
       </c>
       <c r="N34" t="n">
-        <v>1057.609215596752</v>
+        <v>1057.609215596753</v>
       </c>
       <c r="O34" t="n">
         <v>1294.53011195495</v>
@@ -6883,7 +6883,7 @@
         <v>1540.389793439636</v>
       </c>
       <c r="S34" t="n">
-        <v>1433.534791369596</v>
+        <v>1433.534791369597</v>
       </c>
       <c r="T34" t="n">
         <v>1303.557405937556</v>
@@ -6917,67 +6917,67 @@
         <v>1062.395470589659</v>
       </c>
       <c r="D35" t="n">
-        <v>871.1858311227417</v>
+        <v>871.1858311227415</v>
       </c>
       <c r="E35" t="n">
-        <v>658.0144365347081</v>
+        <v>658.0144365347079</v>
       </c>
       <c r="F35" t="n">
-        <v>425.4775711507381</v>
+        <v>425.4775711507377</v>
       </c>
       <c r="G35" t="n">
-        <v>191.6070241668297</v>
+        <v>191.6070241668299</v>
       </c>
       <c r="H35" t="n">
-        <v>46.7405789447159</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="I35" t="n">
-        <v>46.7405789447159</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="J35" t="n">
         <v>170.2399954895711</v>
       </c>
       <c r="K35" t="n">
-        <v>487.566824846252</v>
+        <v>487.5668248462521</v>
       </c>
       <c r="L35" t="n">
-        <v>931.2088235200458</v>
+        <v>931.2088235200459</v>
       </c>
       <c r="M35" t="n">
         <v>1430.995686067212</v>
       </c>
       <c r="N35" t="n">
-        <v>1454.412638238932</v>
+        <v>1917.598794167231</v>
       </c>
       <c r="O35" t="n">
-        <v>1861.655165456458</v>
+        <v>2021.614332005551</v>
       </c>
       <c r="P35" t="n">
-        <v>2177.069780686703</v>
+        <v>2337.028947235796</v>
       </c>
       <c r="Q35" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235796</v>
       </c>
       <c r="R35" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235796</v>
       </c>
       <c r="S35" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235796</v>
       </c>
       <c r="T35" t="n">
-        <v>2296.994498928501</v>
+        <v>2296.994498928502</v>
       </c>
       <c r="U35" t="n">
-        <v>2223.773017088839</v>
+        <v>2223.77301708884</v>
       </c>
       <c r="V35" t="n">
-        <v>2068.40806829064</v>
+        <v>2068.408068290641</v>
       </c>
       <c r="W35" t="n">
-        <v>1887.4874634541</v>
+        <v>1887.487463454101</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.071648281453</v>
+        <v>1687.071648281454</v>
       </c>
       <c r="Y35" t="n">
         <v>1475.144118163151</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>814.3791637492903</v>
+        <v>725.7728415427814</v>
       </c>
       <c r="C36" t="n">
-        <v>652.6754909902451</v>
+        <v>564.0691687837361</v>
       </c>
       <c r="D36" t="n">
-        <v>513.8368539804571</v>
+        <v>425.2305317739482</v>
       </c>
       <c r="E36" t="n">
-        <v>366.8088440373283</v>
+        <v>425.2305317739482</v>
       </c>
       <c r="F36" t="n">
-        <v>232.1150459872027</v>
+        <v>290.5367337238225</v>
       </c>
       <c r="G36" t="n">
-        <v>103.7178013409738</v>
+        <v>162.1394890775937</v>
       </c>
       <c r="H36" t="n">
-        <v>103.7178013409738</v>
+        <v>65.40086073714849</v>
       </c>
       <c r="I36" t="n">
-        <v>46.7405789447159</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="J36" t="n">
         <v>137.668292186759</v>
       </c>
       <c r="K36" t="n">
-        <v>191.6965533174588</v>
+        <v>419.5848558663447</v>
       </c>
       <c r="L36" t="n">
-        <v>628.0116402092179</v>
+        <v>855.8999427581039</v>
       </c>
       <c r="M36" t="n">
-        <v>1195.307281857195</v>
+        <v>1289.168662206241</v>
       </c>
       <c r="N36" t="n">
-        <v>1773.721946298054</v>
+        <v>1867.5833266471</v>
       </c>
       <c r="O36" t="n">
-        <v>1773.721946298054</v>
+        <v>2337.028947235796</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.814325690445</v>
+        <v>2337.028947235796</v>
       </c>
       <c r="Q36" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235796</v>
       </c>
       <c r="R36" t="n">
-        <v>2297.811566306036</v>
+        <v>2297.811566306038</v>
       </c>
       <c r="S36" t="n">
-        <v>2151.165001795138</v>
+        <v>2151.16500179514</v>
       </c>
       <c r="T36" t="n">
-        <v>1963.815089402865</v>
+        <v>1963.815089402867</v>
       </c>
       <c r="U36" t="n">
-        <v>1745.342090115023</v>
+        <v>1745.342090115025</v>
       </c>
       <c r="V36" t="n">
-        <v>1516.946467563357</v>
+        <v>1516.946467563359</v>
       </c>
       <c r="W36" t="n">
-        <v>1364.236921003178</v>
+        <v>1275.630598796669</v>
       </c>
       <c r="X36" t="n">
-        <v>1166.319932880972</v>
+        <v>1077.713610674464</v>
       </c>
       <c r="Y36" t="n">
-        <v>973.7986065305513</v>
+        <v>885.1922843240424</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.7405789447159</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="C37" t="n">
-        <v>46.7405789447159</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="D37" t="n">
-        <v>46.7405789447159</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="E37" t="n">
-        <v>46.7405789447159</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="F37" t="n">
-        <v>46.7405789447159</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="G37" t="n">
-        <v>46.7405789447159</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="H37" t="n">
-        <v>46.7405789447159</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="I37" t="n">
-        <v>46.7405789447159</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="J37" t="n">
-        <v>46.7405789447159</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="K37" t="n">
         <v>111.9679293424035</v>
       </c>
       <c r="L37" t="n">
-        <v>253.0417694647196</v>
+        <v>253.0417694647197</v>
       </c>
       <c r="M37" t="n">
         <v>413.701800915204</v>
@@ -7114,31 +7114,31 @@
         <v>806.6004188827103</v>
       </c>
       <c r="Q37" t="n">
-        <v>791.3177828862566</v>
+        <v>806.6004188827103</v>
       </c>
       <c r="R37" t="n">
-        <v>791.3177828862566</v>
+        <v>806.6004188827103</v>
       </c>
       <c r="S37" t="n">
-        <v>764.0621317379899</v>
+        <v>779.3447677344434</v>
       </c>
       <c r="T37" t="n">
-        <v>713.6840972277222</v>
+        <v>609.5787414467791</v>
       </c>
       <c r="U37" t="n">
-        <v>504.0179752421827</v>
+        <v>504.0179752421834</v>
       </c>
       <c r="V37" t="n">
-        <v>424.8969961064649</v>
+        <v>424.8969961064655</v>
       </c>
       <c r="W37" t="n">
-        <v>138.7405946238641</v>
+        <v>320.354919929724</v>
       </c>
       <c r="X37" t="n">
-        <v>89.10245582509944</v>
+        <v>270.7167811309592</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.68162232323613</v>
+        <v>48.6816223232363</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1262.71490395099</v>
+        <v>1262.714903950991</v>
       </c>
       <c r="C38" t="n">
-        <v>1062.395470589657</v>
+        <v>1062.395470589658</v>
       </c>
       <c r="D38" t="n">
-        <v>871.1858311227406</v>
+        <v>871.185831122741</v>
       </c>
       <c r="E38" t="n">
-        <v>658.0144365347071</v>
+        <v>658.0144365347073</v>
       </c>
       <c r="F38" t="n">
-        <v>425.477571150737</v>
+        <v>425.4775711507372</v>
       </c>
       <c r="G38" t="n">
-        <v>191.6070241668297</v>
+        <v>191.6070241668298</v>
       </c>
       <c r="H38" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="I38" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="J38" t="n">
-        <v>46.74057894471592</v>
+        <v>170.2399954895711</v>
       </c>
       <c r="K38" t="n">
-        <v>46.74057894471592</v>
+        <v>487.5668248462521</v>
       </c>
       <c r="L38" t="n">
-        <v>490.3825776185098</v>
+        <v>931.2088235200459</v>
       </c>
       <c r="M38" t="n">
-        <v>990.169440165676</v>
+        <v>967.8095301389144</v>
       </c>
       <c r="N38" t="n">
-        <v>1476.772548265695</v>
+        <v>1454.412638238933</v>
       </c>
       <c r="O38" t="n">
-        <v>1884.015075483221</v>
+        <v>1861.655165456459</v>
       </c>
       <c r="P38" t="n">
-        <v>2199.429690713466</v>
+        <v>2177.069780686704</v>
       </c>
       <c r="Q38" t="n">
         <v>2337.028947235796</v>
@@ -7202,22 +7202,22 @@
         <v>2337.028947235796</v>
       </c>
       <c r="T38" t="n">
-        <v>2296.994498928501</v>
+        <v>2296.994498928502</v>
       </c>
       <c r="U38" t="n">
-        <v>2223.773017088838</v>
+        <v>2223.773017088839</v>
       </c>
       <c r="V38" t="n">
-        <v>2068.408068290639</v>
+        <v>2068.40806829064</v>
       </c>
       <c r="W38" t="n">
-        <v>1887.487463454099</v>
+        <v>1887.4874634541</v>
       </c>
       <c r="X38" t="n">
-        <v>1687.071648281452</v>
+        <v>1687.071648281453</v>
       </c>
       <c r="Y38" t="n">
-        <v>1475.14411816315</v>
+        <v>1475.144118163151</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>872.419406053679</v>
+        <v>725.7728415427814</v>
       </c>
       <c r="C39" t="n">
-        <v>749.4141193306901</v>
+        <v>595.6982685939872</v>
       </c>
       <c r="D39" t="n">
-        <v>610.5754823209022</v>
+        <v>456.8596315841992</v>
       </c>
       <c r="E39" t="n">
-        <v>463.5474723777735</v>
+        <v>309.8316216410705</v>
       </c>
       <c r="F39" t="n">
-        <v>328.8536743276478</v>
+        <v>175.1378235909448</v>
       </c>
       <c r="G39" t="n">
-        <v>200.456429681419</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="H39" t="n">
-        <v>103.7178013409738</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="I39" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="J39" t="n">
         <v>137.668292186759</v>
       </c>
       <c r="K39" t="n">
-        <v>137.668292186759</v>
+        <v>419.5848558663447</v>
       </c>
       <c r="L39" t="n">
-        <v>573.9833790785182</v>
+        <v>628.0116402092189</v>
       </c>
       <c r="M39" t="n">
-        <v>1141.279020726495</v>
+        <v>1195.307281857196</v>
       </c>
       <c r="N39" t="n">
-        <v>1719.693685167355</v>
+        <v>1773.721946298056</v>
       </c>
       <c r="O39" t="n">
-        <v>1773.721946298055</v>
+        <v>1773.721946298056</v>
       </c>
       <c r="P39" t="n">
         <v>2137.814325690446</v>
@@ -7275,28 +7275,28 @@
         <v>2337.028947235796</v>
       </c>
       <c r="R39" t="n">
-        <v>2297.811566306037</v>
+        <v>2297.811566306038</v>
       </c>
       <c r="S39" t="n">
-        <v>2297.811566306037</v>
+        <v>2151.16500179514</v>
       </c>
       <c r="T39" t="n">
-        <v>2110.461653913764</v>
+        <v>1963.815089402867</v>
       </c>
       <c r="U39" t="n">
-        <v>1891.988654625922</v>
+        <v>1745.342090115025</v>
       </c>
       <c r="V39" t="n">
-        <v>1663.593032074256</v>
+        <v>1516.946467563359</v>
       </c>
       <c r="W39" t="n">
-        <v>1422.277163307566</v>
+        <v>1275.630598796669</v>
       </c>
       <c r="X39" t="n">
-        <v>1224.360175185361</v>
+        <v>1077.713610674464</v>
       </c>
       <c r="Y39" t="n">
-        <v>1031.83884883494</v>
+        <v>885.1922843240424</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>198.7495931833971</v>
+        <v>150.8459347256593</v>
       </c>
       <c r="C40" t="n">
-        <v>198.7495931833971</v>
+        <v>150.8459347256593</v>
       </c>
       <c r="D40" t="n">
-        <v>198.7495931833971</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="E40" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="F40" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="G40" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="H40" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="I40" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="J40" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471593</v>
       </c>
       <c r="K40" t="n">
         <v>111.9679293424035</v>
@@ -7351,31 +7351,31 @@
         <v>806.6004188827103</v>
       </c>
       <c r="Q40" t="n">
-        <v>806.6004188827103</v>
+        <v>791.3177828862566</v>
       </c>
       <c r="R40" t="n">
-        <v>806.6004188827103</v>
+        <v>791.3177828862566</v>
       </c>
       <c r="S40" t="n">
-        <v>779.3447677344436</v>
+        <v>764.0621317379898</v>
       </c>
       <c r="T40" t="n">
-        <v>728.9667332241759</v>
+        <v>532.0697719218624</v>
       </c>
       <c r="U40" t="n">
-        <v>623.4059670195804</v>
+        <v>426.5090057172669</v>
       </c>
       <c r="V40" t="n">
-        <v>544.2849878838626</v>
+        <v>347.388026581549</v>
       </c>
       <c r="W40" t="n">
-        <v>290.7496088625453</v>
+        <v>242.8459504048077</v>
       </c>
       <c r="X40" t="n">
-        <v>241.1114700637806</v>
+        <v>193.207811606043</v>
       </c>
       <c r="Y40" t="n">
-        <v>200.6906365619173</v>
+        <v>152.7869781041796</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7391,43 @@
         <v>1064.566702132425</v>
       </c>
       <c r="D41" t="n">
-        <v>872.9446969849056</v>
+        <v>872.9446969849057</v>
       </c>
       <c r="E41" t="n">
-        <v>659.3609367162691</v>
+        <v>659.3609367162692</v>
       </c>
       <c r="F41" t="n">
-        <v>426.411705651696</v>
+        <v>426.4117056516962</v>
       </c>
       <c r="G41" t="n">
-        <v>192.1287929871846</v>
+        <v>192.1287929871845</v>
       </c>
       <c r="H41" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="I41" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="J41" t="n">
-        <v>46.84998208446773</v>
+        <v>170.3493986293229</v>
       </c>
       <c r="K41" t="n">
-        <v>364.1768114411487</v>
+        <v>487.6762279860038</v>
       </c>
       <c r="L41" t="n">
-        <v>807.8188101149426</v>
+        <v>633.4519911284301</v>
       </c>
       <c r="M41" t="n">
-        <v>1307.605672662109</v>
+        <v>1133.238853675596</v>
       </c>
       <c r="N41" t="n">
-        <v>1794.208780762128</v>
+        <v>1619.841961775615</v>
       </c>
       <c r="O41" t="n">
-        <v>2182.539937674294</v>
+        <v>2027.084488993141</v>
       </c>
       <c r="P41" t="n">
-        <v>2182.539937674294</v>
+        <v>2342.499104223386</v>
       </c>
       <c r="Q41" t="n">
         <v>2342.499104223386</v>
@@ -7439,7 +7439,7 @@
         <v>2342.499104223386</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.05229023549</v>
+        <v>2302.052290235489</v>
       </c>
       <c r="U41" t="n">
         <v>2228.418442715224</v>
@@ -7448,10 +7448,10 @@
         <v>2072.641128236422</v>
       </c>
       <c r="W41" t="n">
-        <v>1891.30815771928</v>
+        <v>1891.308157719279</v>
       </c>
       <c r="X41" t="n">
-        <v>1690.47997686603</v>
+        <v>1690.479976866029</v>
       </c>
       <c r="Y41" t="n">
         <v>1478.140081067124</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>854.2499728332294</v>
+        <v>731.2429985303711</v>
       </c>
       <c r="C42" t="n">
-        <v>692.5463000741842</v>
+        <v>569.5393257713258</v>
       </c>
       <c r="D42" t="n">
-        <v>553.7076630643962</v>
+        <v>430.7006887615379</v>
       </c>
       <c r="E42" t="n">
-        <v>406.6796531212674</v>
+        <v>283.6726788184091</v>
       </c>
       <c r="F42" t="n">
-        <v>271.9858550711418</v>
+        <v>148.9788807682835</v>
       </c>
       <c r="G42" t="n">
-        <v>143.5886104249129</v>
+        <v>103.8272044807256</v>
       </c>
       <c r="H42" t="n">
-        <v>46.84998208446773</v>
+        <v>103.8272044807256</v>
       </c>
       <c r="I42" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="J42" t="n">
         <v>137.7776953265108</v>
@@ -7494,46 +7494,46 @@
         <v>419.6942590060965</v>
       </c>
       <c r="L42" t="n">
-        <v>856.0093458978556</v>
+        <v>632.1279333423803</v>
       </c>
       <c r="M42" t="n">
-        <v>1423.304987545833</v>
+        <v>1199.423574990357</v>
       </c>
       <c r="N42" t="n">
-        <v>1508.9611042423</v>
+        <v>1779.192103285645</v>
       </c>
       <c r="O42" t="n">
-        <v>1978.406724830996</v>
+        <v>1779.192103285645</v>
       </c>
       <c r="P42" t="n">
-        <v>2342.499104223386</v>
+        <v>2143.284482678036</v>
       </c>
       <c r="Q42" t="n">
         <v>2342.499104223386</v>
       </c>
       <c r="R42" t="n">
-        <v>2303.281723293628</v>
+        <v>2303.281723293627</v>
       </c>
       <c r="S42" t="n">
-        <v>2279.642133085588</v>
+        <v>2156.635158782729</v>
       </c>
       <c r="T42" t="n">
-        <v>2092.292220693315</v>
+        <v>1969.285246390456</v>
       </c>
       <c r="U42" t="n">
-        <v>1873.819221405473</v>
+        <v>1750.812247102614</v>
       </c>
       <c r="V42" t="n">
-        <v>1645.423598853807</v>
+        <v>1522.416624550948</v>
       </c>
       <c r="W42" t="n">
-        <v>1404.107730087117</v>
+        <v>1281.100755784259</v>
       </c>
       <c r="X42" t="n">
-        <v>1206.190741964911</v>
+        <v>1083.183767662053</v>
       </c>
       <c r="Y42" t="n">
-        <v>1013.66941561449</v>
+        <v>890.6624413116321</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>199.921875256705</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="C43" t="n">
-        <v>199.921875256705</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="D43" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="E43" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="F43" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="G43" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="H43" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="I43" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="J43" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="K43" t="n">
         <v>112.0773324821553</v>
@@ -7594,25 +7594,25 @@
         <v>806.709822022462</v>
       </c>
       <c r="S43" t="n">
-        <v>779.0418051935923</v>
+        <v>597.8398455683357</v>
       </c>
       <c r="T43" t="n">
-        <v>728.2514050027214</v>
+        <v>430.5480133642881</v>
       </c>
       <c r="U43" t="n">
-        <v>622.2782731175229</v>
+        <v>324.5748814790896</v>
       </c>
       <c r="V43" t="n">
-        <v>542.7449283012021</v>
+        <v>245.0415366627689</v>
       </c>
       <c r="W43" t="n">
-        <v>293.1589879776623</v>
+        <v>140.0870948054247</v>
       </c>
       <c r="X43" t="n">
-        <v>243.1084834982946</v>
+        <v>90.03659032605712</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.2752843158283</v>
+        <v>49.20339114359088</v>
       </c>
     </row>
     <row r="44">
@@ -7631,19 +7631,19 @@
         <v>872.9446969849055</v>
       </c>
       <c r="E44" t="n">
-        <v>659.3609367162686</v>
+        <v>659.3609367162687</v>
       </c>
       <c r="F44" t="n">
-        <v>426.4117056516955</v>
+        <v>426.4117056516957</v>
       </c>
       <c r="G44" t="n">
-        <v>192.1287929871846</v>
+        <v>192.1287929871845</v>
       </c>
       <c r="H44" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="I44" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="J44" t="n">
         <v>170.3493986293229</v>
@@ -7655,10 +7655,10 @@
         <v>931.3182266597977</v>
       </c>
       <c r="M44" t="n">
-        <v>973.2796871265045</v>
+        <v>1431.105089206964</v>
       </c>
       <c r="N44" t="n">
-        <v>1459.882795226524</v>
+        <v>1459.882795226523</v>
       </c>
       <c r="O44" t="n">
         <v>1867.125322444049</v>
@@ -7676,7 +7676,7 @@
         <v>2342.499104223386</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.05229023549</v>
+        <v>2302.052290235489</v>
       </c>
       <c r="U44" t="n">
         <v>2228.418442715224</v>
@@ -7685,10 +7685,10 @@
         <v>2072.641128236422</v>
       </c>
       <c r="W44" t="n">
-        <v>1891.30815771928</v>
+        <v>1891.308157719279</v>
       </c>
       <c r="X44" t="n">
-        <v>1690.47997686603</v>
+        <v>1690.479976866029</v>
       </c>
       <c r="Y44" t="n">
         <v>1478.140081067124</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>757.5113444927842</v>
+        <v>731.2429985303711</v>
       </c>
       <c r="C45" t="n">
-        <v>595.807671733739</v>
+        <v>569.5393257713258</v>
       </c>
       <c r="D45" t="n">
-        <v>456.969034723951</v>
+        <v>430.7006887615379</v>
       </c>
       <c r="E45" t="n">
-        <v>309.9410247808223</v>
+        <v>283.6726788184091</v>
       </c>
       <c r="F45" t="n">
-        <v>175.2472267306966</v>
+        <v>148.9788807682835</v>
       </c>
       <c r="G45" t="n">
-        <v>46.84998208446773</v>
+        <v>143.5886104249129</v>
       </c>
       <c r="H45" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="I45" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="J45" t="n">
-        <v>137.7776953265108</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="K45" t="n">
-        <v>419.6942590060965</v>
+        <v>328.7665457640534</v>
       </c>
       <c r="L45" t="n">
-        <v>856.0093458978556</v>
+        <v>328.7665457640534</v>
       </c>
       <c r="M45" t="n">
-        <v>856.0093458978556</v>
+        <v>896.0621874120304</v>
       </c>
       <c r="N45" t="n">
-        <v>1435.777874193144</v>
+        <v>1475.830715707318</v>
       </c>
       <c r="O45" t="n">
-        <v>1779.192103285646</v>
+        <v>1779.192103285645</v>
       </c>
       <c r="P45" t="n">
-        <v>2143.284482678037</v>
+        <v>2143.284482678036</v>
       </c>
       <c r="Q45" t="n">
         <v>2342.499104223386</v>
       </c>
       <c r="R45" t="n">
-        <v>2303.281723293628</v>
+        <v>2303.281723293627</v>
       </c>
       <c r="S45" t="n">
-        <v>2156.63515878273</v>
+        <v>2156.635158782729</v>
       </c>
       <c r="T45" t="n">
-        <v>1969.285246390457</v>
+        <v>1969.285246390456</v>
       </c>
       <c r="U45" t="n">
-        <v>1750.812247102615</v>
+        <v>1750.812247102614</v>
       </c>
       <c r="V45" t="n">
-        <v>1522.416624550949</v>
+        <v>1522.416624550948</v>
       </c>
       <c r="W45" t="n">
         <v>1281.100755784259</v>
       </c>
       <c r="X45" t="n">
-        <v>1109.452113624466</v>
+        <v>1083.183767662053</v>
       </c>
       <c r="Y45" t="n">
-        <v>916.9307872740451</v>
+        <v>890.6624413116321</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>203.7535032326545</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="C46" t="n">
-        <v>203.7535032326545</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="D46" t="n">
-        <v>203.7535032326545</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="E46" t="n">
-        <v>203.7535032326545</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="F46" t="n">
-        <v>203.7535032326545</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="G46" t="n">
-        <v>203.7535032326545</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="H46" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="I46" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="J46" t="n">
-        <v>46.84998208446773</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="K46" t="n">
         <v>112.0773324821553</v>
@@ -7828,28 +7828,28 @@
         <v>806.709822022462</v>
       </c>
       <c r="R46" t="n">
-        <v>669.6750423370241</v>
+        <v>690.2083900092857</v>
       </c>
       <c r="S46" t="n">
-        <v>642.0070255081544</v>
+        <v>662.5403731804159</v>
       </c>
       <c r="T46" t="n">
-        <v>591.2166253172835</v>
+        <v>611.7499729895451</v>
       </c>
       <c r="U46" t="n">
-        <v>481.4784026272772</v>
+        <v>324.5748814790901</v>
       </c>
       <c r="V46" t="n">
-        <v>401.9450578109563</v>
+        <v>245.0415366627693</v>
       </c>
       <c r="W46" t="n">
-        <v>296.990615953612</v>
+        <v>140.087094805425</v>
       </c>
       <c r="X46" t="n">
-        <v>246.9401114742442</v>
+        <v>90.03659032605729</v>
       </c>
       <c r="Y46" t="n">
-        <v>206.1069122917778</v>
+        <v>49.20339114359096</v>
       </c>
     </row>
   </sheetData>
@@ -8690,22 +8690,22 @@
         <v>95.0787143248523</v>
       </c>
       <c r="K11" t="n">
-        <v>394.9465076480839</v>
+        <v>221.4891829653281</v>
       </c>
       <c r="L11" t="n">
-        <v>388.9259701028595</v>
+        <v>388.9259701028593</v>
       </c>
       <c r="M11" t="n">
-        <v>200.1646763347235</v>
+        <v>79.53237884657511</v>
       </c>
       <c r="N11" t="n">
-        <v>77.03271072545913</v>
+        <v>371.122332896363</v>
       </c>
       <c r="O11" t="n">
         <v>83.68414754305806</v>
       </c>
       <c r="P11" t="n">
-        <v>393.8273213491396</v>
+        <v>393.8273213491394</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>72.07217095056878</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>59.04060237939697</v>
@@ -8775,16 +8775,16 @@
         <v>41.37013890282101</v>
       </c>
       <c r="M12" t="n">
-        <v>326.4803043913817</v>
+        <v>315.6144521438721</v>
       </c>
       <c r="N12" t="n">
-        <v>315.5123126066134</v>
+        <v>315.5123126066132</v>
       </c>
       <c r="O12" t="n">
-        <v>118.8138422600647</v>
+        <v>331.9231416865151</v>
       </c>
       <c r="P12" t="n">
-        <v>340.3211412084883</v>
+        <v>46.23151903758416</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.0787143248523</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>394.946507648084</v>
+        <v>394.9465076480838</v>
       </c>
       <c r="L14" t="n">
-        <v>388.9259701028596</v>
+        <v>94.83634793195542</v>
       </c>
       <c r="M14" t="n">
-        <v>373.6220010174793</v>
+        <v>369.5074131067836</v>
       </c>
       <c r="N14" t="n">
         <v>77.03271072545913</v>
       </c>
       <c r="O14" t="n">
-        <v>365.8913607373601</v>
+        <v>377.7737697139619</v>
       </c>
       <c r="P14" t="n">
         <v>99.7376991782355</v>
       </c>
       <c r="Q14" t="n">
-        <v>114.4345721517224</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056878</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>41.37013890282101</v>
+        <v>335.4597610737249</v>
       </c>
       <c r="M15" t="n">
-        <v>326.4803043913818</v>
+        <v>32.39068222047764</v>
       </c>
       <c r="N15" t="n">
-        <v>21.42269043570934</v>
+        <v>111.7284296141113</v>
       </c>
       <c r="O15" t="n">
-        <v>331.9231416865154</v>
+        <v>331.9231416865151</v>
       </c>
       <c r="P15" t="n">
         <v>46.23151903758416</v>
       </c>
       <c r="Q15" t="n">
-        <v>271.5600382430435</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>215.7110118130005</v>
       </c>
       <c r="K17" t="n">
         <v>100.8568854771799</v>
       </c>
       <c r="L17" t="n">
-        <v>388.9259701028596</v>
+        <v>388.9259701028593</v>
       </c>
       <c r="M17" t="n">
-        <v>373.6220010174793</v>
+        <v>373.622001017479</v>
       </c>
       <c r="N17" t="n">
         <v>77.03271072545913</v>
@@ -9179,10 +9179,10 @@
         <v>83.68414754305806</v>
       </c>
       <c r="P17" t="n">
-        <v>393.8273213491397</v>
+        <v>393.8273213491394</v>
       </c>
       <c r="Q17" t="n">
-        <v>271.8948999471809</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,25 +9240,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>72.07217095056878</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>59.04060237939697</v>
       </c>
       <c r="L18" t="n">
-        <v>335.4597610737252</v>
+        <v>41.37013890282101</v>
       </c>
       <c r="M18" t="n">
-        <v>326.4803043913818</v>
+        <v>326.4803043913815</v>
       </c>
       <c r="N18" t="n">
-        <v>102.4030131801629</v>
+        <v>21.42269043570934</v>
       </c>
       <c r="O18" t="n">
-        <v>37.83351951561121</v>
+        <v>321.0572894390057</v>
       </c>
       <c r="P18" t="n">
-        <v>340.3211412084884</v>
+        <v>340.321141208488</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>95.0787143248523</v>
+        <v>215.7110118130005</v>
       </c>
       <c r="K20" t="n">
         <v>100.8568854771799</v>
       </c>
       <c r="L20" t="n">
-        <v>94.83634793195542</v>
+        <v>388.9259701028593</v>
       </c>
       <c r="M20" t="n">
-        <v>373.6220010174793</v>
+        <v>79.53237884657511</v>
       </c>
       <c r="N20" t="n">
-        <v>359.2399239197613</v>
+        <v>371.122332896363</v>
       </c>
       <c r="O20" t="n">
-        <v>377.7737697139623</v>
+        <v>377.7737697139619</v>
       </c>
       <c r="P20" t="n">
-        <v>393.8273213491397</v>
+        <v>99.7376991782355</v>
       </c>
       <c r="Q20" t="n">
-        <v>114.4345721517224</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,25 +9477,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>72.07217095056878</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>59.04060237939697</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>335.4597610737252</v>
+        <v>41.37013890282101</v>
       </c>
       <c r="M21" t="n">
         <v>32.39068222047764</v>
       </c>
       <c r="N21" t="n">
-        <v>315.5123126066135</v>
+        <v>313.9718767930524</v>
       </c>
       <c r="O21" t="n">
-        <v>118.8138422600647</v>
+        <v>37.83351951561121</v>
       </c>
       <c r="P21" t="n">
-        <v>340.3211412084884</v>
+        <v>340.321141208488</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9641,19 +9641,19 @@
         <v>100.8568854771799</v>
       </c>
       <c r="L23" t="n">
-        <v>388.9259701028597</v>
+        <v>388.9259701028593</v>
       </c>
       <c r="M23" t="n">
-        <v>79.53237884657513</v>
+        <v>373.622001017479</v>
       </c>
       <c r="N23" t="n">
-        <v>371.1223328963633</v>
+        <v>77.03271072545913</v>
       </c>
       <c r="O23" t="n">
-        <v>241.1444753385166</v>
+        <v>377.7737697139619</v>
       </c>
       <c r="P23" t="n">
-        <v>393.8273213491397</v>
+        <v>257.1980269736937</v>
       </c>
       <c r="Q23" t="n">
         <v>114.4345721517224</v>
@@ -9714,25 +9714,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>72.07217095056879</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>59.04060237939698</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>323.5773520971233</v>
+        <v>241.0565935391085</v>
       </c>
       <c r="M24" t="n">
-        <v>326.4803043913819</v>
+        <v>32.39068222047764</v>
       </c>
       <c r="N24" t="n">
-        <v>21.42269043570936</v>
+        <v>21.42269043570934</v>
       </c>
       <c r="O24" t="n">
-        <v>331.9231416865154</v>
+        <v>331.923141686515</v>
       </c>
       <c r="P24" t="n">
-        <v>340.3211412084884</v>
+        <v>340.321141208488</v>
       </c>
       <c r="Q24" t="n">
         <v>71.87358360675529</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>289.7462393201366</v>
+        <v>88.51934887028798</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.87358360675529</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>72.07217095056878</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>180.3655238622508</v>
+        <v>88.51934887028823</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,19 +10425,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056878</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>41.37013890282101</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>511.5131550903445</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>180.3655238622508</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10595,16 +10595,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N35" t="n">
-        <v>100.6861977676007</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>188.7503473797451</v>
       </c>
       <c r="P35" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4345721517224</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10665,25 +10665,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>113.614603521518</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>470.0358533802118</v>
       </c>
       <c r="N36" t="n">
-        <v>605.6799272446581</v>
+        <v>605.6799272446585</v>
       </c>
       <c r="O36" t="n">
-        <v>37.83351951561121</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>46.23151903758416</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675529</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>95.0787143248523</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>100.8568854771799</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>116.5027895727049</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>253.423720154076</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10902,19 +10902,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>59.04060237939697</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>251.9022442996636</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>605.6799272446583</v>
+        <v>605.6799272446585</v>
       </c>
       <c r="O39" t="n">
-        <v>92.40752065773289</v>
+        <v>37.83351951561121</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>95.0787143248523</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155856</v>
+        <v>242.0845935303658</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11072,13 +11072,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>475.9378413937316</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>99.7376991782355</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4345721517224</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11142,22 +11142,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>255.9496079293703</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>107.9440204321407</v>
+        <v>607.047466491556</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>37.83351951561121</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.87358360675529</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11303,10 +11303,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>121.9176924493093</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>106.1011006442058</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11373,22 +11373,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056878</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>41.37013890282101</v>
       </c>
       <c r="M45" t="n">
-        <v>32.39068222047764</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>607.047466491556</v>
+        <v>607.0474664915558</v>
       </c>
       <c r="O45" t="n">
-        <v>384.7165792050071</v>
+        <v>344.2591635341233</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>206.7247209130925</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>202.8552311572073</v>
+        <v>219.4481625275261</v>
       </c>
       <c r="F11" t="n">
-        <v>238.6199786155032</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>239.9403233994415</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>151.8262626552655</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>48.04258570959367</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>80.89774890663901</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>206.8201389062934</v>
+        <v>199.2365371993534</v>
       </c>
       <c r="Y11" t="n">
         <v>218.2167367024922</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.7134039554107</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>206.7247209130925</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>197.7060249576205</v>
       </c>
       <c r="E14" t="n">
-        <v>219.448162527526</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>88.94053147673807</v>
+        <v>91.87907806681686</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>162.2197811955899</v>
       </c>
       <c r="W14" t="n">
-        <v>187.5198806735468</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>206.8201389062934</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>218.2167367024922</v>
       </c>
     </row>
     <row r="15">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-2.216875867721144e-14</v>
       </c>
     </row>
     <row r="18">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>665016.9124092677</v>
+        <v>665016.9124092675</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813772.4596949095</v>
+        <v>813772.4596949096</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813772.4596949095</v>
+        <v>813772.4596949096</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>727582.799931939</v>
+        <v>727582.7999319391</v>
       </c>
       <c r="C2" t="n">
-        <v>727582.7999319389</v>
+        <v>727582.7999319391</v>
       </c>
       <c r="D2" t="n">
-        <v>727582.7999319392</v>
+        <v>727582.7999319391</v>
       </c>
       <c r="E2" t="n">
-        <v>635822.4582137784</v>
+        <v>635822.4582137787</v>
       </c>
       <c r="F2" t="n">
         <v>635822.4582137786</v>
       </c>
       <c r="G2" t="n">
-        <v>729242.857469472</v>
+        <v>729242.8574694723</v>
       </c>
       <c r="H2" t="n">
+        <v>729242.8574694719</v>
+      </c>
+      <c r="I2" t="n">
         <v>729242.8574694721</v>
       </c>
-      <c r="I2" t="n">
-        <v>729242.8574694719</v>
-      </c>
       <c r="J2" t="n">
-        <v>729242.8574694728</v>
+        <v>729242.8574694729</v>
       </c>
       <c r="K2" t="n">
-        <v>729242.8574694728</v>
+        <v>729242.857469473</v>
       </c>
       <c r="L2" t="n">
-        <v>729242.8574694728</v>
+        <v>729242.8574694729</v>
       </c>
       <c r="M2" t="n">
-        <v>729242.8574694726</v>
+        <v>729242.8574694722</v>
       </c>
       <c r="N2" t="n">
-        <v>729242.8574694728</v>
+        <v>729242.8574694722</v>
       </c>
       <c r="O2" t="n">
-        <v>729242.8574694714</v>
+        <v>729242.8574694722</v>
       </c>
       <c r="P2" t="n">
-        <v>729242.8574694713</v>
+        <v>729242.8574694715</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>347410.9880429468</v>
       </c>
       <c r="F3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>80469.26609315911</v>
+        <v>80469.26609315921</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>153193.9940866781</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>7.075868779793381e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>80469.26609315909</v>
+        <v>80469.2660931592</v>
       </c>
       <c r="M3" t="n">
-        <v>63042.68593004406</v>
+        <v>63042.68593004395</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>329.0996873051663</v>
+        <v>329.0996873051116</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>424293.6514672661</v>
       </c>
       <c r="E4" t="n">
-        <v>312560.3075442404</v>
+        <v>312560.3075442405</v>
       </c>
       <c r="F4" t="n">
         <v>312560.3075442405</v>
@@ -26439,13 +26439,13 @@
         <v>368687.9792090663</v>
       </c>
       <c r="J4" t="n">
+        <v>358899.80321999</v>
+      </c>
+      <c r="K4" t="n">
         <v>358899.8032199901</v>
       </c>
-      <c r="K4" t="n">
-        <v>358899.80321999</v>
-      </c>
       <c r="L4" t="n">
-        <v>358899.80321999</v>
+        <v>358899.8032199901</v>
       </c>
       <c r="M4" t="n">
         <v>360570.8158019183</v>
@@ -26454,7 +26454,7 @@
         <v>360570.8158019183</v>
       </c>
       <c r="O4" t="n">
-        <v>360532.5601904276</v>
+        <v>360532.5601904277</v>
       </c>
       <c r="P4" t="n">
         <v>360532.5601904276</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35612.93854501298</v>
+        <v>35612.93854501296</v>
       </c>
       <c r="F5" t="n">
-        <v>35612.93854501299</v>
+        <v>35612.93854501296</v>
       </c>
       <c r="G5" t="n">
         <v>44069.15195899522</v>
@@ -26497,13 +26497,13 @@
         <v>65217.75175230238</v>
       </c>
       <c r="L5" t="n">
-        <v>65217.75175230238</v>
+        <v>65217.75175230239</v>
       </c>
       <c r="M5" t="n">
-        <v>53962.0221786275</v>
+        <v>53962.02217862751</v>
       </c>
       <c r="N5" t="n">
-        <v>53962.02217862751</v>
+        <v>53962.02217862752</v>
       </c>
       <c r="O5" t="n">
         <v>54010.8480661403</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269661.5484646729</v>
+        <v>269657.1798922058</v>
       </c>
       <c r="C6" t="n">
-        <v>269661.5484646728</v>
+        <v>269657.1798922058</v>
       </c>
       <c r="D6" t="n">
-        <v>269661.5484646731</v>
+        <v>269657.1798922058</v>
       </c>
       <c r="E6" t="n">
-        <v>-59761.77591842182</v>
+        <v>-60007.61907435761</v>
       </c>
       <c r="F6" t="n">
-        <v>287649.2121245251</v>
+        <v>287403.3689685891</v>
       </c>
       <c r="G6" t="n">
-        <v>236016.4602082514</v>
+        <v>236016.4602082517</v>
       </c>
       <c r="H6" t="n">
+        <v>316485.7263014104</v>
+      </c>
+      <c r="I6" t="n">
         <v>316485.7263014106</v>
       </c>
-      <c r="I6" t="n">
-        <v>316485.7263014104</v>
-      </c>
       <c r="J6" t="n">
-        <v>151931.3084105022</v>
+        <v>151931.3084105024</v>
       </c>
       <c r="K6" t="n">
         <v>305125.3024971804</v>
       </c>
       <c r="L6" t="n">
-        <v>224656.0364040213</v>
+        <v>224656.0364040212</v>
       </c>
       <c r="M6" t="n">
-        <v>251667.3335588828</v>
+        <v>251667.3335588825</v>
       </c>
       <c r="N6" t="n">
-        <v>314710.019488927</v>
+        <v>314710.0194889263</v>
       </c>
       <c r="O6" t="n">
-        <v>314370.3495255983</v>
+        <v>314370.349525599</v>
       </c>
       <c r="P6" t="n">
-        <v>314699.4492129034</v>
+        <v>314699.4492129036</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>171.3897001674282</v>
       </c>
       <c r="G2" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="H2" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="I2" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="J2" t="n">
         <v>100.9948246402459</v>
@@ -26716,13 +26716,13 @@
         <v>100.9948246402459</v>
       </c>
       <c r="M2" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="N2" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="O2" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="P2" t="n">
         <v>179.389940029004</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.0896221709041</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="F4" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="G4" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="H4" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="I4" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="J4" t="n">
         <v>878.3468589798529</v>
@@ -26817,19 +26817,19 @@
         <v>878.3468589798529</v>
       </c>
       <c r="L4" t="n">
-        <v>878.3468589798529</v>
+        <v>878.346858979853</v>
       </c>
       <c r="M4" t="n">
-        <v>584.2572368089487</v>
+        <v>584.2572368089491</v>
       </c>
       <c r="N4" t="n">
-        <v>584.257236808949</v>
+        <v>584.2572368089491</v>
       </c>
       <c r="O4" t="n">
-        <v>585.6247760558466</v>
+        <v>585.6247760558465</v>
       </c>
       <c r="P4" t="n">
-        <v>585.6247760558466</v>
+        <v>585.6247760558465</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>171.3897001674281</v>
       </c>
       <c r="F2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>100.5865826164489</v>
+        <v>100.586582616449</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.408242023796987</v>
+        <v>0.4082420237968449</v>
       </c>
       <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>8.844835974741727e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>100.5865826164489</v>
+        <v>100.586582616449</v>
       </c>
       <c r="M2" t="n">
-        <v>78.80335741255507</v>
+        <v>78.80335741255494</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.0896221709041</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>584.2572368089486</v>
+        <v>584.2572368089491</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36753924689765</v>
+        <v>1.367539246897422</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>171.3897001674281</v>
       </c>
       <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>100.5865826164489</v>
+        <v>100.586582616449</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.408242023796987</v>
+        <v>0.4082420237968449</v>
       </c>
       <c r="P2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>8.844835974741727e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>294.0896221709041</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28184,7 +28184,7 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I12" t="n">
         <v>56.40745017229531</v>
@@ -28217,25 +28217,25 @@
         <v>38.82520712046112</v>
       </c>
       <c r="S12" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>171.3897001674281</v>
       </c>
-      <c r="U12" t="n">
+      <c r="X12" t="n">
+        <v>51.8609337461657</v>
+      </c>
+      <c r="Y12" t="n">
         <v>171.3897001674281</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>148.9742611548915</v>
-      </c>
-      <c r="X12" t="n">
-        <v>171.3897001674281</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28290,19 +28290,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>15.12980963648914</v>
       </c>
       <c r="R13" t="n">
         <v>135.6644318885835</v>
       </c>
       <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>171.3897001674281</v>
       </c>
-      <c r="T13" t="n">
-        <v>127.1847711419037</v>
-      </c>
       <c r="U13" t="n">
-        <v>171.3897001674281</v>
+        <v>112.0549615054146</v>
       </c>
       <c r="V13" t="n">
         <v>171.3897001674281</v>
@@ -28314,7 +28314,7 @@
         <v>171.3897001674281</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>171.3897001674281</v>
       </c>
     </row>
     <row r="14">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -28415,7 +28415,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -28454,16 +28454,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>140.3601508308777</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
+        <v>20.57774257523437</v>
+      </c>
+      <c r="U15" t="n">
         <v>171.3897001674282</v>
       </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
       <c r="V15" t="n">
-        <v>171.3897001674282</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>171.3897001674282</v>
@@ -28482,13 +28482,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.206435578501</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="C16" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
         <v>150.4889240962943</v>
@@ -28533,7 +28533,7 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S16" t="n">
-        <v>171.3897001674282</v>
+        <v>112.0549615054145</v>
       </c>
       <c r="T16" t="n">
         <v>171.3897001674282</v>
@@ -28542,7 +28542,7 @@
         <v>171.3897001674282</v>
       </c>
       <c r="V16" t="n">
-        <v>171.3897001674282</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>171.3897001674282</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="C17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="D17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="E17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="F17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="G17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="H17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="I17" t="n">
         <v>147.459308470692</v>
@@ -28621,16 +28621,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="W17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="X17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="Y17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
@@ -28649,7 +28649,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
@@ -28691,25 +28691,25 @@
         <v>38.82520712046112</v>
       </c>
       <c r="S18" t="n">
-        <v>85.37771462411685</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>209.1639208126718</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>71.87502158688135</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,10 +28734,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>155.3344859367049</v>
       </c>
       <c r="I19" t="n">
         <v>134.4929323504436</v>
@@ -28764,28 +28764,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.12980963648914</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>135.6644318885835</v>
       </c>
       <c r="S19" t="n">
-        <v>206.781276689585</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>229.6724362179661</v>
       </c>
       <c r="U19" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>47.3705696126261</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="C20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="D20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="E20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="F20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="G20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="H20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="I20" t="n">
         <v>147.459308470692</v>
@@ -28858,16 +28858,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="W20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="X20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="Y20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>37.24031898842225</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
         <v>160.0866360314548</v>
@@ -28898,7 +28898,7 @@
         <v>95.77124205704071</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>56.40745017229531</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.82520712046112</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>185.4764132683503</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>114.0088946400081</v>
       </c>
     </row>
     <row r="22">
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.40010687803149</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -29007,25 +29007,25 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S22" t="n">
-        <v>206.781276689585</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>229.6724362179661</v>
       </c>
       <c r="U22" t="n">
-        <v>271.9762827838771</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>271.9762827838771</v>
+        <v>22.11821321409604</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="C23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="D23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="E23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="F23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="G23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="H23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="I23" t="n">
         <v>147.459308470692</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.23037211170279</v>
+        <v>51.23037211170278</v>
       </c>
       <c r="S23" t="n">
         <v>171.3897001674282</v>
@@ -29095,16 +29095,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="W23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="X23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="Y23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
     </row>
     <row r="24">
@@ -29129,10 +29129,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I24" t="n">
         <v>56.40745017229531</v>
@@ -29165,22 +29165,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>147.2724106563647</v>
+        <v>39.3941471801817</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>190.5961130869169</v>
@@ -29199,22 +29199,22 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>25.81886500624165</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H25" t="n">
         <v>155.3344859367049</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.4929323504436</v>
       </c>
       <c r="J25" t="n">
         <v>40.01867628890813</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.12980963648914</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>206.781276689585</v>
+        <v>120.7509791749372</v>
       </c>
       <c r="T25" t="n">
         <v>229.6724362179661</v>
       </c>
       <c r="U25" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>271.9762827838771</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>100.9948246402459</v>
       </c>
       <c r="J26" t="n">
-        <v>100.9948246402459</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>100.9948246402459</v>
@@ -29311,7 +29311,7 @@
         <v>40.87787536901743</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="P26" t="n">
         <v>100.9948246402459</v>
@@ -29454,7 +29454,7 @@
         <v>100.9948246402459</v>
       </c>
       <c r="J28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402467</v>
       </c>
       <c r="K28" t="n">
         <v>100.9948246402459</v>
@@ -29542,22 +29542,22 @@
         <v>100.9948246402459</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>100.9948246402459</v>
       </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
       <c r="O29" t="n">
-        <v>90.64232789755971</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="P29" t="n">
-        <v>100.9948246402459</v>
+        <v>40.87787536901737</v>
       </c>
       <c r="Q29" t="n">
         <v>100.9948246402459</v>
       </c>
       <c r="R29" t="n">
-        <v>51.23037211170278</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="S29" t="n">
         <v>100.9948246402459</v>
@@ -29700,7 +29700,7 @@
         <v>100.9948246402459</v>
       </c>
       <c r="M31" t="n">
-        <v>100.9948246402454</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="N31" t="n">
         <v>100.9948246402459</v>
@@ -29776,19 +29776,19 @@
         <v>100.9948246402459</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="M32" t="n">
-        <v>100.9948246402459</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>100.9948246402459</v>
       </c>
       <c r="O32" t="n">
+        <v>40.877875369018</v>
+      </c>
+      <c r="P32" t="n">
         <v>100.9948246402459</v>
-      </c>
-      <c r="P32" t="n">
-        <v>40.87787536901646</v>
       </c>
       <c r="Q32" t="n">
         <v>100.9948246402459</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="C35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="D35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="E35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="F35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="G35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="H35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="I35" t="n">
         <v>147.459308470692</v>
@@ -30037,22 +30037,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="U35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="V35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="W35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="X35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="Y35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
     </row>
     <row r="36">
@@ -30071,7 +30071,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30080,10 +30080,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>37.93377119778708</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30125,7 +30125,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>87.72025898444519</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>15.12980963648914</v>
       </c>
       <c r="R37" t="n">
         <v>135.6644318885835</v>
       </c>
       <c r="S37" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="T37" t="n">
-        <v>179.798182052801</v>
+        <v>61.60407019317844</v>
       </c>
       <c r="U37" t="n">
-        <v>76.73387982966645</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="V37" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="X37" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="Y37" t="n">
-        <v>179.798182052801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="C38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="D38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="E38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="F38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="G38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="H38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="I38" t="n">
         <v>147.459308470692</v>
@@ -30274,22 +30274,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="U38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="V38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="W38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="X38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="Y38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>38.31140217569585</v>
+        <v>31.3128088121486</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30317,10 +30317,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>56.40745017229531</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,7 +30350,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30378,16 +30378,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>48.47687201738093</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.12980963648914</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>135.6644318885835</v>
       </c>
       <c r="S40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="T40" t="n">
-        <v>179.798182052801</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="V40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="W40" t="n">
-        <v>32.29481223667071</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="X40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="C41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="D41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="E41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="F41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="G41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="H41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="I41" t="n">
         <v>147.459308470692</v>
@@ -30511,22 +30511,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="U41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="V41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="W41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="X41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="Y41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
     </row>
     <row r="42">
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>82.41311267508432</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I42" t="n">
-        <v>56.40745017229531</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>121.7769045598295</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30615,13 +30615,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30666,25 +30666,25 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S43" t="n">
-        <v>179.389940029004</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>179.389940029004</v>
+        <v>64.05352233595895</v>
       </c>
       <c r="U43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="V43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="W43" t="n">
-        <v>36.20475654747045</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="X43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="Y43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
     </row>
     <row r="44">
@@ -30788,10 +30788,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>121.7769045598297</v>
       </c>
       <c r="H45" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>56.40745017229531</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>26.00566250278843</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30870,7 +30870,7 @@
         <v>166.9556149377512</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>155.3344859367049</v>
       </c>
       <c r="I46" t="n">
         <v>134.4929323504436</v>
@@ -30900,7 +30900,7 @@
         <v>15.12980963648914</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>20.32801419553894</v>
       </c>
       <c r="S46" t="n">
         <v>179.389940029004</v>
@@ -30909,7 +30909,7 @@
         <v>179.389940029004</v>
       </c>
       <c r="U46" t="n">
-        <v>175.6625001322443</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>179.389940029004</v>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6129231134842077</v>
+        <v>0.6129231134842078</v>
       </c>
       <c r="H23" t="n">
-        <v>6.277098835970143</v>
+        <v>6.277098835970144</v>
       </c>
       <c r="I23" t="n">
         <v>23.62971833259994</v>
       </c>
       <c r="J23" t="n">
-        <v>52.02108310308031</v>
+        <v>52.02108310308033</v>
       </c>
       <c r="K23" t="n">
-        <v>77.96611849686684</v>
+        <v>77.96611849686686</v>
       </c>
       <c r="L23" t="n">
-        <v>96.72386423115918</v>
+        <v>96.7238642311592</v>
       </c>
       <c r="M23" t="n">
         <v>107.623935650584</v>
@@ -32725,22 +32725,22 @@
         <v>103.2706492370624</v>
       </c>
       <c r="P23" t="n">
-        <v>88.13910987292098</v>
+        <v>88.139109872921</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.18880087126777</v>
+        <v>66.18880087126779</v>
       </c>
       <c r="R23" t="n">
-        <v>38.50153152740239</v>
+        <v>38.5015315274024</v>
       </c>
       <c r="S23" t="n">
         <v>13.9669854485214</v>
       </c>
       <c r="T23" t="n">
-        <v>2.68307092927712</v>
+        <v>2.683070929277121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0490338490787366</v>
+        <v>0.04903384907873661</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3279427771816685</v>
+        <v>0.3279427771816686</v>
       </c>
       <c r="H24" t="n">
         <v>3.167236821728221</v>
@@ -32789,34 +32789,34 @@
         <v>30.98340071609791</v>
       </c>
       <c r="K24" t="n">
-        <v>52.9555667872697</v>
+        <v>52.95556678726971</v>
       </c>
       <c r="L24" t="n">
-        <v>71.20529466832676</v>
+        <v>71.20529466832677</v>
       </c>
       <c r="M24" t="n">
-        <v>83.09322034116224</v>
+        <v>83.09322034116225</v>
       </c>
       <c r="N24" t="n">
-        <v>85.29245063199896</v>
+        <v>85.29245063199897</v>
       </c>
       <c r="O24" t="n">
-        <v>78.02592909549988</v>
+        <v>78.02592909549989</v>
       </c>
       <c r="P24" t="n">
-        <v>62.62268698655915</v>
+        <v>62.62268698655916</v>
       </c>
       <c r="Q24" t="n">
-        <v>41.8616078381372</v>
+        <v>41.86160783813721</v>
       </c>
       <c r="R24" t="n">
-        <v>20.36121909554255</v>
+        <v>20.36121909554256</v>
       </c>
       <c r="S24" t="n">
         <v>6.091393251598094</v>
       </c>
       <c r="T24" t="n">
-        <v>1.321839527324356</v>
+        <v>1.321839527324357</v>
       </c>
       <c r="U24" t="n">
         <v>0.02157518270932031</v>
@@ -32871,16 +32871,16 @@
         <v>31.94258853842843</v>
       </c>
       <c r="L25" t="n">
-        <v>40.87551588086531</v>
+        <v>40.87551588086532</v>
       </c>
       <c r="M25" t="n">
         <v>43.09750032614409</v>
       </c>
       <c r="N25" t="n">
-        <v>42.07273809603804</v>
+        <v>42.07273809603805</v>
       </c>
       <c r="O25" t="n">
-        <v>38.86098330168118</v>
+        <v>38.86098330168119</v>
       </c>
       <c r="P25" t="n">
         <v>33.25228465690546</v>
@@ -32892,10 +32892,10 @@
         <v>12.36213168318208</v>
       </c>
       <c r="S25" t="n">
-        <v>4.791388280764264</v>
+        <v>4.791388280764265</v>
       </c>
       <c r="T25" t="n">
-        <v>1.174727434511843</v>
+        <v>1.174727434511844</v>
       </c>
       <c r="U25" t="n">
         <v>0.01499652044057675</v>
@@ -32935,22 +32935,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6129231134842077</v>
+        <v>0.6129231134842078</v>
       </c>
       <c r="H26" t="n">
-        <v>6.277098835970143</v>
+        <v>6.277098835970144</v>
       </c>
       <c r="I26" t="n">
         <v>23.62971833259994</v>
       </c>
       <c r="J26" t="n">
-        <v>52.02108310308031</v>
+        <v>52.02108310308033</v>
       </c>
       <c r="K26" t="n">
-        <v>77.96611849686684</v>
+        <v>77.96611849686686</v>
       </c>
       <c r="L26" t="n">
-        <v>96.72386423115918</v>
+        <v>96.7238642311592</v>
       </c>
       <c r="M26" t="n">
         <v>107.623935650584</v>
@@ -32962,22 +32962,22 @@
         <v>103.2706492370624</v>
       </c>
       <c r="P26" t="n">
-        <v>88.13910987292098</v>
+        <v>88.139109872921</v>
       </c>
       <c r="Q26" t="n">
-        <v>66.18880087126777</v>
+        <v>66.18880087126779</v>
       </c>
       <c r="R26" t="n">
-        <v>38.50153152740239</v>
+        <v>38.5015315274024</v>
       </c>
       <c r="S26" t="n">
         <v>13.9669854485214</v>
       </c>
       <c r="T26" t="n">
-        <v>2.68307092927712</v>
+        <v>2.683070929277121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0490338490787366</v>
+        <v>0.04903384907873661</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3279427771816685</v>
+        <v>0.3279427771816686</v>
       </c>
       <c r="H27" t="n">
         <v>3.167236821728221</v>
@@ -33026,34 +33026,34 @@
         <v>30.98340071609791</v>
       </c>
       <c r="K27" t="n">
-        <v>52.9555667872697</v>
+        <v>52.95556678726971</v>
       </c>
       <c r="L27" t="n">
-        <v>71.20529466832676</v>
+        <v>71.20529466832677</v>
       </c>
       <c r="M27" t="n">
-        <v>83.09322034116224</v>
+        <v>83.09322034116225</v>
       </c>
       <c r="N27" t="n">
-        <v>85.29245063199896</v>
+        <v>85.29245063199897</v>
       </c>
       <c r="O27" t="n">
-        <v>78.02592909549988</v>
+        <v>78.02592909549989</v>
       </c>
       <c r="P27" t="n">
-        <v>62.62268698655915</v>
+        <v>62.62268698655916</v>
       </c>
       <c r="Q27" t="n">
-        <v>41.8616078381372</v>
+        <v>41.86160783813721</v>
       </c>
       <c r="R27" t="n">
-        <v>20.36121909554255</v>
+        <v>20.36121909554256</v>
       </c>
       <c r="S27" t="n">
         <v>6.091393251598094</v>
       </c>
       <c r="T27" t="n">
-        <v>1.321839527324356</v>
+        <v>1.321839527324357</v>
       </c>
       <c r="U27" t="n">
         <v>0.02157518270932031</v>
@@ -33108,16 +33108,16 @@
         <v>31.94258853842843</v>
       </c>
       <c r="L28" t="n">
-        <v>40.87551588086531</v>
+        <v>40.87551588086532</v>
       </c>
       <c r="M28" t="n">
         <v>43.09750032614409</v>
       </c>
       <c r="N28" t="n">
-        <v>42.07273809603804</v>
+        <v>42.07273809603805</v>
       </c>
       <c r="O28" t="n">
-        <v>38.86098330168118</v>
+        <v>38.86098330168119</v>
       </c>
       <c r="P28" t="n">
         <v>33.25228465690546</v>
@@ -33129,10 +33129,10 @@
         <v>12.36213168318208</v>
       </c>
       <c r="S28" t="n">
-        <v>4.791388280764264</v>
+        <v>4.791388280764265</v>
       </c>
       <c r="T28" t="n">
-        <v>1.174727434511843</v>
+        <v>1.174727434511844</v>
       </c>
       <c r="U28" t="n">
         <v>0.01499652044057675</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6129231134842078</v>
+        <v>0.6129231134842077</v>
       </c>
       <c r="H29" t="n">
-        <v>6.277098835970144</v>
+        <v>6.277098835970143</v>
       </c>
       <c r="I29" t="n">
         <v>23.62971833259994</v>
       </c>
       <c r="J29" t="n">
-        <v>52.02108310308033</v>
+        <v>52.02108310308031</v>
       </c>
       <c r="K29" t="n">
-        <v>77.96611849686686</v>
+        <v>77.96611849686684</v>
       </c>
       <c r="L29" t="n">
-        <v>96.7238642311592</v>
+        <v>96.72386423115918</v>
       </c>
       <c r="M29" t="n">
         <v>107.623935650584</v>
@@ -33199,22 +33199,22 @@
         <v>103.2706492370624</v>
       </c>
       <c r="P29" t="n">
-        <v>88.139109872921</v>
+        <v>88.13910987292098</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.18880087126779</v>
+        <v>66.18880087126777</v>
       </c>
       <c r="R29" t="n">
-        <v>38.5015315274024</v>
+        <v>38.50153152740239</v>
       </c>
       <c r="S29" t="n">
         <v>13.9669854485214</v>
       </c>
       <c r="T29" t="n">
-        <v>2.683070929277121</v>
+        <v>2.68307092927712</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04903384907873661</v>
+        <v>0.0490338490787366</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3279427771816686</v>
+        <v>0.3279427771816685</v>
       </c>
       <c r="H30" t="n">
         <v>3.167236821728221</v>
@@ -33263,34 +33263,34 @@
         <v>30.98340071609791</v>
       </c>
       <c r="K30" t="n">
-        <v>52.95556678726971</v>
+        <v>52.9555667872697</v>
       </c>
       <c r="L30" t="n">
-        <v>71.20529466832677</v>
+        <v>71.20529466832676</v>
       </c>
       <c r="M30" t="n">
-        <v>83.09322034116225</v>
+        <v>83.09322034116224</v>
       </c>
       <c r="N30" t="n">
-        <v>85.29245063199897</v>
+        <v>85.29245063199896</v>
       </c>
       <c r="O30" t="n">
-        <v>78.02592909549989</v>
+        <v>78.02592909549988</v>
       </c>
       <c r="P30" t="n">
-        <v>62.62268698655916</v>
+        <v>62.62268698655915</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.86160783813721</v>
+        <v>41.8616078381372</v>
       </c>
       <c r="R30" t="n">
-        <v>20.36121909554256</v>
+        <v>20.36121909554255</v>
       </c>
       <c r="S30" t="n">
         <v>6.091393251598094</v>
       </c>
       <c r="T30" t="n">
-        <v>1.321839527324357</v>
+        <v>1.321839527324356</v>
       </c>
       <c r="U30" t="n">
         <v>0.02157518270932031</v>
@@ -33345,16 +33345,16 @@
         <v>31.94258853842843</v>
       </c>
       <c r="L31" t="n">
-        <v>40.87551588086532</v>
+        <v>40.87551588086531</v>
       </c>
       <c r="M31" t="n">
         <v>43.09750032614409</v>
       </c>
       <c r="N31" t="n">
-        <v>42.07273809603805</v>
+        <v>42.07273809603804</v>
       </c>
       <c r="O31" t="n">
-        <v>38.86098330168119</v>
+        <v>38.86098330168118</v>
       </c>
       <c r="P31" t="n">
         <v>33.25228465690546</v>
@@ -33366,10 +33366,10 @@
         <v>12.36213168318208</v>
       </c>
       <c r="S31" t="n">
-        <v>4.791388280764265</v>
+        <v>4.791388280764264</v>
       </c>
       <c r="T31" t="n">
-        <v>1.174727434511844</v>
+        <v>1.174727434511843</v>
       </c>
       <c r="U31" t="n">
         <v>0.01499652044057675</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>294.0896221709041</v>
+        <v>120.6322974881482</v>
       </c>
       <c r="L11" t="n">
-        <v>294.0896221709041</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="M11" t="n">
-        <v>120.6322974881483</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>294.0896221709041</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="Q11" t="n">
         <v>161.5749157061537</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>91.84617499196271</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>294.0896221709041</v>
+        <v>283.2237699233945</v>
       </c>
       <c r="N12" t="n">
-        <v>294.0896221709041</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="O12" t="n">
-        <v>80.98032274445352</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="P12" t="n">
-        <v>294.0896221709041</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>201.2268904498486</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.7468853988436</v>
       </c>
       <c r="K14" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="L14" t="n">
-        <v>294.0896221709042</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>294.0896221709042</v>
+        <v>289.9750342602085</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>282.207213194302</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.84617499196271</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>284.7642057369553</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="M15" t="n">
-        <v>294.0896221709042</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>90.30573917840192</v>
       </c>
       <c r="O15" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.6864546362882</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>124.7468853988436</v>
+        <v>120.6322974881482</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="M17" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,10 +35899,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="Q17" t="n">
-        <v>157.4603277954584</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>91.84617499196271</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>294.0896221709042</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="N18" t="n">
-        <v>80.98032274445352</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>283.2237699233945</v>
       </c>
       <c r="P18" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="Q18" t="n">
         <v>201.2268904498486</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>120.6322974881482</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="M20" t="n">
-        <v>294.0896221709042</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>282.2072131943022</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="O20" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="P20" t="n">
-        <v>294.0896221709042</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>91.84617499196271</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L21" t="n">
-        <v>294.0896221709042</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>294.0896221709042</v>
+        <v>292.5491863573431</v>
       </c>
       <c r="O21" t="n">
-        <v>80.98032274445352</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="Q21" t="n">
         <v>201.2268904498486</v>
@@ -36361,19 +36361,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="N23" t="n">
-        <v>294.0896221709042</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>157.4603277954585</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="P23" t="n">
-        <v>294.0896221709042</v>
+        <v>157.4603277954582</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>91.84617499196271</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L24" t="n">
-        <v>282.2072131943022</v>
+        <v>199.6864546362875</v>
       </c>
       <c r="M24" t="n">
-        <v>294.0896221709042</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="P24" t="n">
-        <v>294.0896221709042</v>
+        <v>294.0896221709039</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>65.88621252291672</v>
+        <v>65.88621252291674</v>
       </c>
       <c r="L25" t="n">
         <v>142.49882840638</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>225.7417100390895</v>
+        <v>124.7468853988436</v>
       </c>
       <c r="K26" t="n">
         <v>421.5269755055802</v>
@@ -36607,7 +36607,7 @@
         <v>532.3961663791376</v>
       </c>
       <c r="O26" t="n">
-        <v>411.3560880985108</v>
+        <v>512.3509127387567</v>
       </c>
       <c r="P26" t="n">
         <v>419.5954460849378</v>
@@ -36616,7 +36616,7 @@
         <v>262.5697403463996</v>
       </c>
       <c r="R26" t="n">
-        <v>49.76445252854313</v>
+        <v>49.76445252854311</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>91.8461749919627</v>
+        <v>91.84617499196271</v>
       </c>
       <c r="K27" t="n">
-        <v>284.7642057369552</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L27" t="n">
         <v>440.7223099916759</v>
@@ -36683,16 +36683,16 @@
         <v>573.0259006545223</v>
       </c>
       <c r="N27" t="n">
-        <v>268.3235488844273</v>
+        <v>67.09665843457864</v>
       </c>
       <c r="O27" t="n">
-        <v>474.1874955441371</v>
+        <v>474.1874955441372</v>
       </c>
       <c r="P27" t="n">
         <v>367.7700801943341</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.9761483513378</v>
+        <v>60.97614835133859</v>
       </c>
       <c r="K28" t="n">
-        <v>166.8810371631627</v>
+        <v>166.8810371631626</v>
       </c>
       <c r="L28" t="n">
         <v>243.4936530466259</v>
@@ -36768,10 +36768,10 @@
         <v>239.314036725452</v>
       </c>
       <c r="P28" t="n">
-        <v>197.8516383154724</v>
+        <v>197.8516383154723</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.86501500375678</v>
+        <v>85.86501500375675</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,22 +36838,22 @@
         <v>549.1180556238761</v>
       </c>
       <c r="M29" t="n">
-        <v>605.8300393343532</v>
+        <v>504.8352146941072</v>
       </c>
       <c r="N29" t="n">
-        <v>491.5182910101202</v>
+        <v>592.5131156503661</v>
       </c>
       <c r="O29" t="n">
-        <v>501.9984159960705</v>
+        <v>512.3509127387567</v>
       </c>
       <c r="P29" t="n">
-        <v>419.5954460849379</v>
+        <v>359.4784968137093</v>
       </c>
       <c r="Q29" t="n">
         <v>262.5697403463996</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>49.76445252854315</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>91.8461749919627</v>
       </c>
       <c r="K30" t="n">
-        <v>284.7642057369553</v>
+        <v>284.7642057369552</v>
       </c>
       <c r="L30" t="n">
         <v>440.7223099916759</v>
@@ -36920,10 +36920,10 @@
         <v>573.0259006545223</v>
       </c>
       <c r="N30" t="n">
-        <v>158.9428334265415</v>
+        <v>67.09665843457887</v>
       </c>
       <c r="O30" t="n">
-        <v>474.1874955441372</v>
+        <v>474.1874955441371</v>
       </c>
       <c r="P30" t="n">
         <v>367.7700801943341</v>
@@ -36996,7 +36996,7 @@
         <v>243.4936530466259</v>
       </c>
       <c r="M31" t="n">
-        <v>263.2776846912398</v>
+        <v>263.2776846912403</v>
       </c>
       <c r="N31" t="n">
         <v>262.6860897560823</v>
@@ -37072,25 +37072,25 @@
         <v>421.5269755055802</v>
       </c>
       <c r="L32" t="n">
-        <v>448.1232309836302</v>
+        <v>549.118055623876</v>
       </c>
       <c r="M32" t="n">
-        <v>605.8300393343532</v>
+        <v>504.8352146941072</v>
       </c>
       <c r="N32" t="n">
         <v>592.5131156503661</v>
       </c>
       <c r="O32" t="n">
-        <v>512.3509127387567</v>
+        <v>452.2339634675288</v>
       </c>
       <c r="P32" t="n">
-        <v>359.4784968137084</v>
+        <v>419.5954460849378</v>
       </c>
       <c r="Q32" t="n">
         <v>262.5697403463996</v>
       </c>
       <c r="R32" t="n">
-        <v>49.76445252854314</v>
+        <v>49.76445252854312</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>91.84617499196271</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>284.7642057369553</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.7223099916759</v>
       </c>
       <c r="M33" t="n">
-        <v>479.1224728698669</v>
+        <v>573.0259006545223</v>
       </c>
       <c r="N33" t="n">
-        <v>601.7223962109101</v>
+        <v>158.9428334265415</v>
       </c>
       <c r="O33" t="n">
         <v>474.1874955441372</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.9761483513378</v>
+        <v>60.97614835133778</v>
       </c>
       <c r="K34" t="n">
         <v>166.8810371631627</v>
@@ -37245,7 +37245,7 @@
         <v>197.8516383154724</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.86501500375678</v>
+        <v>85.86501500375677</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,16 +37315,16 @@
         <v>504.8352146941072</v>
       </c>
       <c r="N35" t="n">
-        <v>23.65348704214156</v>
+        <v>491.5182910101202</v>
       </c>
       <c r="O35" t="n">
-        <v>411.3560880985108</v>
+        <v>105.066199836687</v>
       </c>
       <c r="P35" t="n">
         <v>318.6006214446919</v>
       </c>
       <c r="Q35" t="n">
-        <v>161.5749157061537</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>91.84617499196271</v>
       </c>
       <c r="K36" t="n">
-        <v>54.57400114212101</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L36" t="n">
         <v>440.7223099916759</v>
       </c>
       <c r="M36" t="n">
-        <v>573.0259006545223</v>
+        <v>437.6451711597342</v>
       </c>
       <c r="N36" t="n">
-        <v>584.2572368089487</v>
+        <v>584.2572368089491</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>474.1874955441372</v>
       </c>
       <c r="P36" t="n">
-        <v>367.7700801943341</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>201.2268904498486</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.7468853988436</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>320.5321508653343</v>
       </c>
       <c r="L38" t="n">
         <v>448.1232309836302</v>
       </c>
       <c r="M38" t="n">
-        <v>504.8352146941072</v>
+        <v>36.97041072612976</v>
       </c>
       <c r="N38" t="n">
         <v>491.5182910101202</v>
@@ -37561,7 +37561,7 @@
         <v>318.6006214446919</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.9891480023536</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>91.84617499196271</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L39" t="n">
-        <v>440.7223099916759</v>
+        <v>210.5321053968426</v>
       </c>
       <c r="M39" t="n">
         <v>573.0259006545223</v>
       </c>
       <c r="N39" t="n">
-        <v>584.257236808949</v>
+        <v>584.2572368089491</v>
       </c>
       <c r="O39" t="n">
-        <v>54.57400114212167</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>367.7700801943341</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.7468853988436</v>
       </c>
       <c r="K41" t="n">
         <v>320.5321508653343</v>
       </c>
       <c r="L41" t="n">
-        <v>448.1232309836302</v>
+        <v>147.2482455984104</v>
       </c>
       <c r="M41" t="n">
         <v>504.8352146941072</v>
@@ -37792,13 +37792,13 @@
         <v>491.5182910101202</v>
       </c>
       <c r="O41" t="n">
-        <v>392.2536938506735</v>
+        <v>411.3560880985108</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>318.6006214446919</v>
       </c>
       <c r="Q41" t="n">
-        <v>161.5749157061537</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>284.7642057369553</v>
       </c>
       <c r="L42" t="n">
-        <v>440.7223099916759</v>
+        <v>214.5794690265493</v>
       </c>
       <c r="M42" t="n">
         <v>573.0259006545223</v>
       </c>
       <c r="N42" t="n">
-        <v>86.52132999643136</v>
+        <v>585.6247760558465</v>
       </c>
       <c r="O42" t="n">
-        <v>474.1874955441372</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>367.7700801943341</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,10 +38023,10 @@
         <v>448.1232309836302</v>
       </c>
       <c r="M44" t="n">
-        <v>42.38531360273419</v>
+        <v>504.8352146941072</v>
       </c>
       <c r="N44" t="n">
-        <v>491.5182910101202</v>
+        <v>29.06838991874669</v>
       </c>
       <c r="O44" t="n">
         <v>411.3560880985108</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>91.84617499196271</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>284.7642057369553</v>
       </c>
       <c r="L45" t="n">
-        <v>440.7223099916759</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>573.0259006545223</v>
       </c>
       <c r="N45" t="n">
-        <v>585.6247760558466</v>
+        <v>585.6247760558465</v>
       </c>
       <c r="O45" t="n">
-        <v>346.8830596893959</v>
+        <v>306.4256440185121</v>
       </c>
       <c r="P45" t="n">
         <v>367.7700801943341</v>
